--- a/ActivityTracker.xlsx
+++ b/ActivityTracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDS-Classrooms\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bch0118\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="113">
   <si>
     <t>Week-wise-Effort</t>
   </si>
@@ -678,7 +678,59 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1148,11 +1200,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="319935424"/>
-        <c:axId val="319938168"/>
+        <c:axId val="319381016"/>
+        <c:axId val="319383368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="319935424"/>
+        <c:axId val="319381016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1226,7 +1278,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319938168"/>
+        <c:crossAx val="319383368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1236,7 +1288,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319938168"/>
+        <c:axId val="319383368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,7 +1372,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319935424"/>
+        <c:crossAx val="319381016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1548,11 +1600,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="319936992"/>
-        <c:axId val="319932288"/>
+        <c:axId val="319385328"/>
+        <c:axId val="319384544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="319936992"/>
+        <c:axId val="319385328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1587,7 +1639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319932288"/>
+        <c:crossAx val="319384544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1597,7 +1649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319932288"/>
+        <c:axId val="319384544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1681,7 +1733,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319936992"/>
+        <c:crossAx val="319385328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1903,11 +1955,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="319932680"/>
-        <c:axId val="319930720"/>
+        <c:axId val="319385720"/>
+        <c:axId val="319380232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="319932680"/>
+        <c:axId val="319385720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1981,7 +2033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319930720"/>
+        <c:crossAx val="319380232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1991,7 +2043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319930720"/>
+        <c:axId val="319380232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2075,7 +2127,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319932680"/>
+        <c:crossAx val="319385720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2297,11 +2349,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="319937776"/>
-        <c:axId val="319933072"/>
+        <c:axId val="319384936"/>
+        <c:axId val="319382192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="319937776"/>
+        <c:axId val="319384936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2375,7 +2427,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319933072"/>
+        <c:crossAx val="319382192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2385,7 +2437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319933072"/>
+        <c:axId val="319382192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2469,7 +2521,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319937776"/>
+        <c:crossAx val="319384936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3122,10 +3174,10 @@
                   <c:v>19.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.25</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3158,11 +3210,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="319931504"/>
-        <c:axId val="319936600"/>
+        <c:axId val="319382584"/>
+        <c:axId val="319382976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="319931504"/>
+        <c:axId val="319382584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +3249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319936600"/>
+        <c:crossAx val="319382976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3207,7 +3259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319936600"/>
+        <c:axId val="319382976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3291,7 +3343,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319931504"/>
+        <c:crossAx val="319382584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3894,8 +3946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -4612,7 +4664,7 @@
         <v>47</v>
       </c>
       <c r="C27" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>73</v>
@@ -4646,7 +4698,7 @@
         <v>47</v>
       </c>
       <c r="C28" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>95</v>
@@ -4678,7 +4730,7 @@
         <v>47</v>
       </c>
       <c r="C29" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>96</v>
@@ -4710,7 +4762,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>79</v>
@@ -4742,7 +4794,7 @@
         <v>47</v>
       </c>
       <c r="C31" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>97</v>
@@ -4774,7 +4826,7 @@
         <v>47</v>
       </c>
       <c r="C32" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>98</v>
@@ -4805,7 +4857,7 @@
         <v>47</v>
       </c>
       <c r="C33" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>87</v>
@@ -4837,12 +4889,14 @@
         <v>49</v>
       </c>
       <c r="C34" s="8">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="8"/>
+      <c r="E34" s="8">
+        <v>2.5</v>
+      </c>
       <c r="F34" s="8"/>
       <c r="G34" s="29" t="s">
         <v>71</v>
@@ -4867,12 +4921,14 @@
         <v>45</v>
       </c>
       <c r="C35" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="8"/>
+      <c r="E35" s="8">
+        <v>8</v>
+      </c>
       <c r="F35" s="8"/>
       <c r="G35" s="29" t="s">
         <v>71</v>
@@ -4973,115 +5029,266 @@
       <c r="G40" s="28"/>
       <c r="H40" s="3"/>
       <c r="I40" s="18" t="str">
-        <f>IF(OR(E40="", F40=""), "", E40-F40)</f>
+        <f t="shared" ref="I40:I45" si="6">IF(OR(E40="", F40=""), "", E40-F40)</f>
         <v/>
       </c>
       <c r="J40" s="18" t="str">
-        <f>IF(OR(I40="",F40=0),"",ABS(I40)/F40*100)</f>
+        <f t="shared" ref="J40:J45" si="7">IF(OR(I40="",F40=0),"",ABS(I40)/F40*100)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G41" s="30" t="s">
-        <v>69</v>
+      <c r="A41" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="8">
+        <v>5</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="8">
+        <v>2</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="I41" s="18" t="str">
-        <f>IF(OR(E41="", F41=""), "", E41-F41)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J41" s="18" t="str">
-        <f>IF(OR(I41="",F41=0),"",ABS(I41)/F41*100)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G42" s="30" t="s">
-        <v>69</v>
+      <c r="A42" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="8">
+        <v>5</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="8">
+        <v>2</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="I42" s="18" t="str">
-        <f>IF(OR(E42="", F42=""), "", E42-F42)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J42" s="18" t="str">
-        <f>IF(OR(I42="",F42=0),"",ABS(I42)/F42*100)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G43" s="30" t="s">
-        <v>69</v>
+      <c r="A43" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="8">
+        <v>5</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="8">
+        <v>2</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="I43" s="18" t="str">
-        <f>IF(OR(E43="", F43=""), "", E43-F43)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J43" s="18" t="str">
-        <f>IF(OR(I43="",F43=0),"",ABS(I43)/F43*100)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G44" s="30" t="s">
-        <v>69</v>
+      <c r="A44" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="8">
+        <v>5</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="8">
+        <v>2</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="I44" s="18" t="str">
-        <f>IF(OR(E44="", F44=""), "", E44-F44)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J44" s="18" t="str">
-        <f>IF(OR(I44="",F44=0),"",ABS(I44)/F44*100)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G45" s="30" t="s">
-        <v>69</v>
+      <c r="A45" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="8">
+        <v>5</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="8">
+        <v>2</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="I45" s="18" t="str">
-        <f>IF(OR(E45="", F45=""), "", E45-F45)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J45" s="18" t="str">
-        <f>IF(OR(I45="",F45=0),"",ABS(I45)/F45*100)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G46" s="30" t="s">
-        <v>69</v>
+      <c r="A46" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="8">
+        <v>5</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="8">
+        <v>2</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="I46" s="18" t="str">
-        <f t="shared" ref="I46:I86" si="6">IF(OR(E46="", F46=""), "", E46-F46)</f>
+        <f t="shared" ref="I46:I86" si="8">IF(OR(E46="", F46=""), "", E46-F46)</f>
         <v/>
       </c>
       <c r="J46" s="18" t="str">
-        <f t="shared" ref="J46:J86" si="7">IF(OR(I46="",F46=0),"",ABS(I46)/F46*100)</f>
+        <f t="shared" ref="J46:J86" si="9">IF(OR(I46="",F46=0),"",ABS(I46)/F46*100)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G47" s="30" t="s">
-        <v>69</v>
+      <c r="A47" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="8">
+        <v>5</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="I47" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J47" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G48" s="30" t="s">
-        <v>69</v>
+      <c r="A48" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="8">
+        <v>5</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="8">
+        <v>8</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="I48" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J48" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5097,11 +5304,11 @@
       <c r="G49" s="28"/>
       <c r="H49" s="3"/>
       <c r="I49" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J49" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5110,11 +5317,11 @@
         <v>69</v>
       </c>
       <c r="I50" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J50" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5123,11 +5330,11 @@
         <v>69</v>
       </c>
       <c r="I51" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J51" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5136,11 +5343,11 @@
         <v>69</v>
       </c>
       <c r="I52" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J52" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5149,11 +5356,11 @@
         <v>69</v>
       </c>
       <c r="I53" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J53" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5162,11 +5369,11 @@
         <v>69</v>
       </c>
       <c r="I54" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J54" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5175,11 +5382,11 @@
         <v>69</v>
       </c>
       <c r="I55" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J55" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5209,11 +5416,11 @@
         <v>69</v>
       </c>
       <c r="I59" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J59" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5233,11 +5440,11 @@
       <c r="G61" s="28"/>
       <c r="H61" s="3"/>
       <c r="I61" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J61" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5246,11 +5453,11 @@
         <v>69</v>
       </c>
       <c r="I62" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J62" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5259,11 +5466,11 @@
         <v>69</v>
       </c>
       <c r="I63" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J63" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5272,11 +5479,11 @@
         <v>69</v>
       </c>
       <c r="I64" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J64" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5285,11 +5492,11 @@
         <v>69</v>
       </c>
       <c r="I65" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J65" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5298,11 +5505,11 @@
         <v>69</v>
       </c>
       <c r="I66" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J66" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5311,11 +5518,11 @@
         <v>69</v>
       </c>
       <c r="I67" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J67" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5324,11 +5531,11 @@
         <v>69</v>
       </c>
       <c r="I68" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J68" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5337,11 +5544,11 @@
         <v>69</v>
       </c>
       <c r="I69" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J69" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5357,11 +5564,11 @@
       <c r="G70" s="28"/>
       <c r="H70" s="3"/>
       <c r="I70" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J70" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5370,11 +5577,11 @@
         <v>69</v>
       </c>
       <c r="I71" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J71" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5383,11 +5590,11 @@
         <v>69</v>
       </c>
       <c r="I72" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J72" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5396,11 +5603,11 @@
         <v>69</v>
       </c>
       <c r="I73" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J73" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5409,11 +5616,11 @@
         <v>69</v>
       </c>
       <c r="I74" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J74" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5422,11 +5629,11 @@
         <v>69</v>
       </c>
       <c r="I75" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J75" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5435,11 +5642,11 @@
         <v>69</v>
       </c>
       <c r="I76" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J76" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5448,11 +5655,11 @@
         <v>69</v>
       </c>
       <c r="I77" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J77" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5461,11 +5668,11 @@
         <v>69</v>
       </c>
       <c r="I78" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J78" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5474,11 +5681,11 @@
         <v>69</v>
       </c>
       <c r="I79" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J79" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5487,11 +5694,11 @@
         <v>69</v>
       </c>
       <c r="I80" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J80" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5500,11 +5707,11 @@
         <v>69</v>
       </c>
       <c r="I81" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J81" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5513,11 +5720,11 @@
         <v>69</v>
       </c>
       <c r="I82" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J82" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5526,11 +5733,11 @@
         <v>69</v>
       </c>
       <c r="I83" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J83" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5539,21 +5746,21 @@
         <v>69</v>
       </c>
       <c r="I84" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J84" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I85" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J85" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5569,11 +5776,11 @@
       <c r="G86" s="28"/>
       <c r="H86" s="3"/>
       <c r="I86" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J86" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5595,11 +5802,11 @@
         <v>69</v>
       </c>
       <c r="I88" s="18" t="str">
-        <f t="shared" ref="I88:I162" si="8">IF(OR(E88="", F88=""), "", E88-F88)</f>
+        <f t="shared" ref="I88:I162" si="10">IF(OR(E88="", F88=""), "", E88-F88)</f>
         <v/>
       </c>
       <c r="J88" s="18" t="str">
-        <f t="shared" ref="J88:J162" si="9">IF(OR(I88="",F88=0),"",ABS(I88)/F88*100)</f>
+        <f t="shared" ref="J88:J162" si="11">IF(OR(I88="",F88=0),"",ABS(I88)/F88*100)</f>
         <v/>
       </c>
     </row>
@@ -5636,11 +5843,11 @@
         <v>69</v>
       </c>
       <c r="I93" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J93" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -5697,11 +5904,11 @@
         <v>69</v>
       </c>
       <c r="I100" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J100" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -5710,11 +5917,11 @@
         <v>69</v>
       </c>
       <c r="I101" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J101" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -5730,11 +5937,11 @@
       <c r="G102" s="28"/>
       <c r="H102" s="3"/>
       <c r="I102" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J102" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -5743,11 +5950,11 @@
         <v>69</v>
       </c>
       <c r="I103" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J103" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -5756,11 +5963,11 @@
         <v>69</v>
       </c>
       <c r="I104" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J104" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -5769,11 +5976,11 @@
         <v>69</v>
       </c>
       <c r="I105" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J105" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -5824,11 +6031,11 @@
         <v>69</v>
       </c>
       <c r="I112" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J112" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -5837,11 +6044,11 @@
         <v>69</v>
       </c>
       <c r="I113" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J113" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -5850,11 +6057,11 @@
         <v>69</v>
       </c>
       <c r="I114" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J114" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -5870,11 +6077,11 @@
       <c r="G115" s="28"/>
       <c r="H115" s="3"/>
       <c r="I115" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J115" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -5883,11 +6090,11 @@
         <v>70</v>
       </c>
       <c r="I116" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J116" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -5903,11 +6110,11 @@
         <v>69</v>
       </c>
       <c r="I118" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J118" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -5916,11 +6123,11 @@
         <v>69</v>
       </c>
       <c r="I119" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J119" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -5929,21 +6136,21 @@
         <v>69</v>
       </c>
       <c r="I120" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J120" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I121" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J121" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -5952,1537 +6159,1548 @@
         <v>37</v>
       </c>
       <c r="I122" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J122" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I123" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J123" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I124" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J124" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I125" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J125" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I126" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J126" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I127" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J127" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I128" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J128" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I129" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J129" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I130" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J130" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I131" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J131" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I132" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J132" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I133" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J133" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I134" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J134" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I135" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J135" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I136" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J136" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I137" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J137" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I138" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J138" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I139" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J139" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I140" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J140" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I141" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J141" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I142" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J142" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I143" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J143" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I144" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J144" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I145" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J145" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I146" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J146" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I147" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J147" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I148" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J148" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I149" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J149" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I150" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J150" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I151" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J151" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I152" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J152" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I153" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J153" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I154" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J154" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I155" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J155" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I156" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J156" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I157" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J157" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I158" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J158" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I159" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J159" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I160" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J160" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I161" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J161" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I162" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J162" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I163" s="18" t="str">
-        <f t="shared" ref="I163:I226" si="10">IF(OR(E163="", F163=""), "", E163-F163)</f>
+        <f t="shared" ref="I163:I226" si="12">IF(OR(E163="", F163=""), "", E163-F163)</f>
         <v/>
       </c>
       <c r="J163" s="18" t="str">
-        <f t="shared" ref="J163:J226" si="11">IF(OR(I163="",F163=0),"",ABS(I163)/F163*100)</f>
+        <f t="shared" ref="J163:J226" si="13">IF(OR(I163="",F163=0),"",ABS(I163)/F163*100)</f>
         <v/>
       </c>
     </row>
     <row r="164" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I164" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J164" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I165" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J165" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I166" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J166" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I167" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J167" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I168" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J168" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I169" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J169" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I170" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J170" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I171" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J171" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I172" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J172" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I173" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J173" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I174" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J174" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I175" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J175" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I176" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J176" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I177" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J177" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I178" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J178" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I179" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J179" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I180" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J180" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I181" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J181" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I182" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J182" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I183" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J183" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I184" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J184" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I185" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J185" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I186" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J186" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I187" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J187" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I188" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J188" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I189" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J189" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I190" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J190" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I191" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J191" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I192" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J192" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I193" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J193" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I194" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J194" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I195" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J195" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I196" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J196" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I197" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J197" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I198" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J198" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I199" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J199" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I200" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J200" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I201" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J201" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I202" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J202" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I203" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J203" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I204" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J204" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I205" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J205" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I206" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J206" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I207" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J207" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I208" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J208" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I209" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J209" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I210" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J210" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I211" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J211" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I212" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J212" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I213" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J213" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I214" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J214" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I215" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J215" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I216" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J216" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I217" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J217" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I218" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J218" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I219" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J219" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I220" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J220" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I221" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J221" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I222" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J222" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I223" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J223" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I224" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J224" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I225" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J225" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I226" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J226" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I227" s="18" t="str">
-        <f t="shared" ref="I227:I268" si="12">IF(OR(E227="", F227=""), "", E227-F227)</f>
+        <f t="shared" ref="I227:I268" si="14">IF(OR(E227="", F227=""), "", E227-F227)</f>
         <v/>
       </c>
       <c r="J227" s="18" t="str">
-        <f t="shared" ref="J227:J275" si="13">IF(OR(I227="",F227=0),"",ABS(I227)/F227*100)</f>
+        <f t="shared" ref="J227:J275" si="15">IF(OR(I227="",F227=0),"",ABS(I227)/F227*100)</f>
         <v/>
       </c>
     </row>
     <row r="228" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I228" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J228" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I229" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J229" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I230" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J230" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I231" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J231" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I232" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J232" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I233" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J233" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I234" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J234" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I235" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J235" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I236" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J236" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I237" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J237" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I238" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J238" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I239" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J239" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I240" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J240" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I241" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J241" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I242" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J242" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I243" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J243" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I244" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J244" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I245" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J245" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I246" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J246" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I247" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J247" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I248" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J248" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I249" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J249" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I250" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J250" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I251" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J251" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I252" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J252" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I253" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J253" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I254" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J254" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I255" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J255" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I256" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J256" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I257" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J257" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I258" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J258" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I259" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J259" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I260" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J260" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I261" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J261" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I262" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J262" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I263" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J263" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I264" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J264" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I265" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J265" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I266" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J266" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I267" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J267" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I268" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J268" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="9:10" x14ac:dyDescent="0.2">
       <c r="J269" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="9:10" x14ac:dyDescent="0.2">
       <c r="J270" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="9:10" x14ac:dyDescent="0.2">
       <c r="J271" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="9:10" x14ac:dyDescent="0.2">
       <c r="J272" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J273" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J274" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J275" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G26 G40:G65536">
-    <cfRule type="cellIs" dxfId="14" priority="4" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G1:G26 G40 G49:G65536">
+    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="12" stopIfTrue="1" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:G39">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41:G48">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Delayed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7759,7 +7977,7 @@
       </c>
       <c r="F12" s="24">
         <f>DCOUNT(Activities!A:J,"Estimation Error %",D5:D6)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="25">
         <f t="shared" si="0"/>
@@ -7781,7 +7999,7 @@
       </c>
       <c r="F13" s="24">
         <f>DCOUNT(Activities!A:J,"Estimation Error %",E5:E6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="25">
         <f t="shared" si="0"/>
@@ -8277,7 +8495,7 @@
       </c>
       <c r="F50" s="23">
         <f>SUMIF(Activities!C:C,C50,Activities!F:F)</f>
-        <v>10.25</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -8289,7 +8507,7 @@
       </c>
       <c r="F51" s="23">
         <f>SUMIF(Activities!C:C,C51,Activities!F:F)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -8362,7 +8580,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/ActivityTracker.xlsx
+++ b/ActivityTracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bch0118\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhastings\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Reports" sheetId="3" r:id="rId3"/>
     <sheet name="Instructions" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -476,7 +476,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -678,137 +678,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -969,7 +839,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1190,6 +1060,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC74-4FD6-B285-DEBF6D41E452}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1429,7 +1304,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1570,7 +1445,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>427.08333333333343</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1590,6 +1465,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F16-4EF2-A0C1-9E7DFBBB025C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1790,7 +1670,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1922,7 +1802,7 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>16.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1931,7 +1811,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>485.71428571428584</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1945,6 +1825,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F60-4836-A6E4-9B83C2D604D4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2184,7 +2069,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2316,7 +2201,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2325,7 +2210,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>9.8000000000000043</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2339,6 +2224,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBD2-48A8-AB91-EF0E9212C2A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2578,7 +2468,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2662,6 +2552,11 @@
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-AECA-4C19-A55B-F07C15EEA1A0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2677,6 +2572,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-AECA-4C19-A55B-F07C15EEA1A0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2692,6 +2592,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-AECA-4C19-A55B-F07C15EEA1A0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2707,6 +2612,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-AECA-4C19-A55B-F07C15EEA1A0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2722,6 +2632,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-AECA-4C19-A55B-F07C15EEA1A0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2737,6 +2652,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-AECA-4C19-A55B-F07C15EEA1A0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2752,6 +2672,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-AECA-4C19-A55B-F07C15EEA1A0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -2767,6 +2692,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-AECA-4C19-A55B-F07C15EEA1A0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2782,6 +2712,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-AECA-4C19-A55B-F07C15EEA1A0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="0%" sourceLinked="0"/>
@@ -2869,7 +2804,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2878,7 +2813,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>9.8000000000000043</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2892,6 +2827,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-AECA-4C19-A55B-F07C15EEA1A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2994,7 +2934,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3177,7 +3117,7 @@
                   <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>12.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3195,11 +3135,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.5</c:v>
+                  <c:v>34.300000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8400-49E2-86E7-2D668B1F9065}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3946,8 +3891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -5053,20 +4998,22 @@
       <c r="E41" s="8">
         <v>2</v>
       </c>
-      <c r="F41" s="8"/>
+      <c r="F41" s="8">
+        <v>0.3</v>
+      </c>
       <c r="G41" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="I41" s="18" t="str">
+      <c r="I41" s="18">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J41" s="18" t="str">
+        <v>1.7</v>
+      </c>
+      <c r="J41" s="18">
         <f t="shared" si="7"/>
-        <v/>
+        <v>566.66666666666674</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -5085,20 +5032,22 @@
       <c r="E42" s="8">
         <v>2</v>
       </c>
-      <c r="F42" s="8"/>
+      <c r="F42" s="8">
+        <v>0.3</v>
+      </c>
       <c r="G42" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I42" s="18" t="str">
+      <c r="I42" s="18">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J42" s="18" t="str">
+        <v>1.7</v>
+      </c>
+      <c r="J42" s="18">
         <f t="shared" si="7"/>
-        <v/>
+        <v>566.66666666666674</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -5117,20 +5066,22 @@
       <c r="E43" s="8">
         <v>2</v>
       </c>
-      <c r="F43" s="8"/>
+      <c r="F43" s="8">
+        <v>0.3</v>
+      </c>
       <c r="G43" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I43" s="18" t="str">
+      <c r="I43" s="18">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J43" s="18" t="str">
+        <v>1.7</v>
+      </c>
+      <c r="J43" s="18">
         <f t="shared" si="7"/>
-        <v/>
+        <v>566.66666666666674</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -5149,20 +5100,22 @@
       <c r="E44" s="8">
         <v>2</v>
       </c>
-      <c r="F44" s="8"/>
+      <c r="F44" s="8">
+        <v>0.3</v>
+      </c>
       <c r="G44" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="I44" s="18" t="str">
+      <c r="I44" s="18">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J44" s="18" t="str">
+        <v>1.7</v>
+      </c>
+      <c r="J44" s="18">
         <f t="shared" si="7"/>
-        <v/>
+        <v>566.66666666666674</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -5181,19 +5134,22 @@
       <c r="E45" s="8">
         <v>2</v>
       </c>
+      <c r="F45" s="8">
+        <v>0.3</v>
+      </c>
       <c r="G45" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I45" s="18" t="str">
+      <c r="I45" s="18">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J45" s="18" t="str">
+        <v>1.7</v>
+      </c>
+      <c r="J45" s="18">
         <f t="shared" si="7"/>
-        <v/>
+        <v>566.66666666666674</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -5212,20 +5168,22 @@
       <c r="E46" s="8">
         <v>2</v>
       </c>
-      <c r="F46" s="8"/>
+      <c r="F46" s="8">
+        <v>0.3</v>
+      </c>
       <c r="G46" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I46" s="18" t="str">
+      <c r="I46" s="18">
         <f t="shared" ref="I46:I86" si="8">IF(OR(E46="", F46=""), "", E46-F46)</f>
-        <v/>
-      </c>
-      <c r="J46" s="18" t="str">
+        <v>1.7</v>
+      </c>
+      <c r="J46" s="18">
         <f t="shared" ref="J46:J86" si="9">IF(OR(I46="",F46=0),"",ABS(I46)/F46*100)</f>
-        <v/>
+        <v>566.66666666666674</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -5244,20 +5202,22 @@
       <c r="E47" s="8">
         <v>2.5</v>
       </c>
-      <c r="F47" s="8"/>
+      <c r="F47" s="8">
+        <v>3</v>
+      </c>
       <c r="G47" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="I47" s="18" t="str">
+      <c r="I47" s="18">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J47" s="18" t="str">
+        <v>-0.5</v>
+      </c>
+      <c r="J47" s="18">
         <f t="shared" si="9"/>
-        <v/>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -5274,7 +5234,7 @@
         <v>73</v>
       </c>
       <c r="E48" s="8">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="29" t="s">
@@ -7672,35 +7632,35 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G1:G26 G40 G49:G65536">
-    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" stopIfTrue="1" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:G39">
-    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G48">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7995,15 +7955,15 @@
       <c r="D13" s="24"/>
       <c r="E13" s="24">
         <f>SUMIF(Activities!C:C,C13,Activities!J:J)</f>
-        <v>0</v>
+        <v>3416.6666666666674</v>
       </c>
       <c r="F13" s="24">
         <f>DCOUNT(Activities!A:J,"Estimation Error %",E5:E6)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G13" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>427.08333333333343</v>
       </c>
       <c r="H13" s="24"/>
     </row>
@@ -8149,7 +8109,7 @@
       </c>
       <c r="F23" s="23">
         <f>SUMIF(Activities!B:B,A23,Activities!F:F)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -8176,7 +8136,7 @@
       </c>
       <c r="F26" s="23">
         <f>SUMIF(Activities!B:B,A26,Activities!F:F)</f>
-        <v>8</v>
+        <v>9.8000000000000043</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -8332,15 +8292,15 @@
       </c>
       <c r="C38" s="23">
         <f>SUMIF(Activities!B:B,A38,Activities!J:J)</f>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="D38" s="23">
         <f>DCOUNT(Activities!A:J,"Estimation Error %",C32:C33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -8383,15 +8343,15 @@
       </c>
       <c r="C41" s="23">
         <f>SUMIF(Activities!B:B,A41,Activities!J:J)</f>
-        <v>0</v>
+        <v>3400.0000000000009</v>
       </c>
       <c r="D41" s="23">
         <f>DCOUNT(Activities!A:J,"Estimation Error %",F32:F33)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E41" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>485.71428571428584</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -8507,7 +8467,7 @@
       </c>
       <c r="F51" s="23">
         <f>SUMIF(Activities!C:C,C51,Activities!F:F)</f>
-        <v>8</v>
+        <v>12.800000000000004</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -8576,7 +8536,7 @@
       </c>
       <c r="F57" s="23">
         <f>SUM(F47:F56)</f>
-        <v>29.5</v>
+        <v>34.300000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/ActivityTracker.xlsx
+++ b/ActivityTracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhastings\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhastings\Documents\Personal\School\UNT\2016\FALL 2016\CSCE 4444\Project\Week 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="121">
   <si>
     <t>Week-wise-Effort</t>
   </si>
@@ -471,6 +471,30 @@
   </si>
   <si>
     <t>Get familiar with website to help begin development</t>
+  </si>
+  <si>
+    <t>Design UML Diagram for Project</t>
+  </si>
+  <si>
+    <t>User login functionality added to app</t>
+  </si>
+  <si>
+    <t>Design Logo and Choose team color</t>
+  </si>
+  <si>
+    <t>Create UML Diagram for Database</t>
+  </si>
+  <si>
+    <t>Design complete</t>
+  </si>
+  <si>
+    <t>Implementation in progress</t>
+  </si>
+  <si>
+    <t>Design in progress</t>
+  </si>
+  <si>
+    <t>Everyone has looked at the tutorials</t>
   </si>
 </sst>
 </file>
@@ -1445,13 +1469,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>427.08333333333343</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>488.09523809523819</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>30.952380952380945</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1802,7 +1826,7 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.666666666666664</c:v>
+                  <c:v>33.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1811,7 +1835,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>485.71428571428584</c:v>
+                  <c:v>274.35897435897448</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2201,7 +2225,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2210,13 +2234,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.8000000000000043</c:v>
+                  <c:v>25.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.5</c:v>
+                  <c:v>38.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2804,7 +2828,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2813,13 +2837,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.8000000000000043</c:v>
+                  <c:v>25.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.5</c:v>
+                  <c:v>38.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3117,13 +3141,13 @@
                   <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.800000000000004</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3135,7 +3159,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.300000000000004</c:v>
+                  <c:v>77.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3891,8 +3915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -4990,7 +5014,7 @@
         <v>47</v>
       </c>
       <c r="C41" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>95</v>
@@ -5024,7 +5048,7 @@
         <v>47</v>
       </c>
       <c r="C42" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>96</v>
@@ -5058,7 +5082,7 @@
         <v>47</v>
       </c>
       <c r="C43" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>79</v>
@@ -5092,7 +5116,7 @@
         <v>47</v>
       </c>
       <c r="C44" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>97</v>
@@ -5126,7 +5150,7 @@
         <v>47</v>
       </c>
       <c r="C45" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>98</v>
@@ -5160,7 +5184,7 @@
         <v>47</v>
       </c>
       <c r="C46" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>87</v>
@@ -5194,7 +5218,7 @@
         <v>49</v>
       </c>
       <c r="C47" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>73</v>
@@ -5228,7 +5252,7 @@
         <v>45</v>
       </c>
       <c r="C48" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>73</v>
@@ -5273,100 +5297,298 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="6">
+        <v>7</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="6">
+        <v>2</v>
+      </c>
+      <c r="F50" s="6">
+        <v>3</v>
+      </c>
       <c r="G50" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I50" s="18" t="str">
+      <c r="H50" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I50" s="18">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J50" s="18" t="str">
+        <v>-1</v>
+      </c>
+      <c r="J50" s="18">
         <f t="shared" si="9"/>
-        <v/>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="6">
+        <v>7</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="6">
+        <v>2</v>
+      </c>
+      <c r="F51" s="6">
+        <v>3</v>
+      </c>
       <c r="G51" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I51" s="18" t="str">
+      <c r="H51" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51" s="18">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J51" s="18" t="str">
+        <v>-1</v>
+      </c>
+      <c r="J51" s="18">
         <f t="shared" si="9"/>
-        <v/>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="6">
+        <v>7</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="6">
+        <v>2</v>
+      </c>
+      <c r="F52" s="6">
+        <v>3</v>
+      </c>
       <c r="G52" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I52" s="18" t="str">
+      <c r="H52" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52" s="18">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J52" s="18" t="str">
+        <v>-1</v>
+      </c>
+      <c r="J52" s="18">
         <f t="shared" si="9"/>
-        <v/>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="6">
+        <v>7</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="6">
+        <v>2</v>
+      </c>
+      <c r="F53" s="6">
+        <v>3</v>
+      </c>
       <c r="G53" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I53" s="18" t="str">
+      <c r="H53" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53" s="18">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J53" s="18" t="str">
+        <v>-1</v>
+      </c>
+      <c r="J53" s="18">
         <f t="shared" si="9"/>
-        <v/>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="6">
+        <v>7</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="6">
+        <v>2</v>
+      </c>
+      <c r="F54" s="6">
+        <v>3</v>
+      </c>
       <c r="G54" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I54" s="18" t="str">
+      <c r="H54" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I54" s="18">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J54" s="18" t="str">
+        <v>-1</v>
+      </c>
+      <c r="J54" s="18">
         <f t="shared" si="9"/>
-        <v/>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="6">
+        <v>7</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1</v>
+      </c>
+      <c r="F55" s="6">
+        <v>1</v>
+      </c>
       <c r="G55" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I55" s="18" t="str">
+      <c r="H55" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I55" s="18">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J55" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="J55" s="18">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="6">
+        <v>7</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="6">
+        <v>3</v>
+      </c>
+      <c r="F56" s="6">
+        <v>2</v>
+      </c>
       <c r="G56" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I56" s="18">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J56" s="18">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="6">
+        <v>7</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
       <c r="G57" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I57" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J57" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="6">
+        <v>7</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="6">
+        <v>25</v>
+      </c>
+      <c r="F58" s="6">
+        <v>25</v>
+      </c>
       <c r="G58" s="30" t="s">
         <v>69</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="18"/>
@@ -7955,15 +8177,15 @@
       <c r="D13" s="24"/>
       <c r="E13" s="24">
         <f>SUMIF(Activities!C:C,C13,Activities!J:J)</f>
-        <v>3416.6666666666674</v>
+        <v>0</v>
       </c>
       <c r="F13" s="24">
         <f>DCOUNT(Activities!A:J,"Estimation Error %",E5:E6)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G13" s="25">
         <f t="shared" si="0"/>
-        <v>427.08333333333343</v>
+        <v>0</v>
       </c>
       <c r="H13" s="24"/>
     </row>
@@ -7977,15 +8199,15 @@
       <c r="D14" s="24"/>
       <c r="E14" s="24">
         <f>SUMIF(Activities!C:C,C14,Activities!J:J)</f>
-        <v>0</v>
+        <v>3416.6666666666674</v>
       </c>
       <c r="F14" s="24">
         <f>DCOUNT(Activities!A:J,"Estimation Error %",F5:F6)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G14" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>488.09523809523819</v>
       </c>
       <c r="H14" s="24"/>
     </row>
@@ -7999,15 +8221,15 @@
       <c r="D15" s="24"/>
       <c r="E15" s="24">
         <f>SUMIF(Activities!C:C,C15,Activities!J:J)</f>
-        <v>0</v>
+        <v>216.66666666666663</v>
       </c>
       <c r="F15" s="24">
         <f>DCOUNT(Activities!A:J,"Estimation Error %",G5:G6)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G15" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30.952380952380945</v>
       </c>
       <c r="H15" s="24"/>
     </row>
@@ -8109,7 +8331,7 @@
       </c>
       <c r="F23" s="23">
         <f>SUMIF(Activities!B:B,A23,Activities!F:F)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -8136,7 +8358,7 @@
       </c>
       <c r="F26" s="23">
         <f>SUMIF(Activities!B:B,A26,Activities!F:F)</f>
-        <v>9.8000000000000043</v>
+        <v>25.800000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -8154,7 +8376,7 @@
       </c>
       <c r="F28" s="23">
         <f>SUMIF(Activities!B:B,A28,Activities!F:F)</f>
-        <v>13.5</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -8292,15 +8514,15 @@
       </c>
       <c r="C38" s="23">
         <f>SUMIF(Activities!B:B,A38,Activities!J:J)</f>
-        <v>16.666666666666664</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="D38" s="23">
         <f>DCOUNT(Activities!A:J,"Estimation Error %",C32:C33)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="23">
         <f t="shared" si="1"/>
-        <v>16.666666666666664</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -8343,15 +8565,15 @@
       </c>
       <c r="C41" s="23">
         <f>SUMIF(Activities!B:B,A41,Activities!J:J)</f>
-        <v>3400.0000000000009</v>
+        <v>3566.6666666666683</v>
       </c>
       <c r="D41" s="23">
         <f>DCOUNT(Activities!A:J,"Estimation Error %",F32:F33)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E41" s="23">
         <f t="shared" si="1"/>
-        <v>485.71428571428584</v>
+        <v>274.35897435897448</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -8467,7 +8689,7 @@
       </c>
       <c r="F51" s="23">
         <f>SUMIF(Activities!C:C,C51,Activities!F:F)</f>
-        <v>12.800000000000004</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -8479,7 +8701,7 @@
       </c>
       <c r="F52" s="23">
         <f>SUMIF(Activities!C:C,C52,Activities!F:F)</f>
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -8491,7 +8713,7 @@
       </c>
       <c r="F53" s="23">
         <f>SUMIF(Activities!C:C,C53,Activities!F:F)</f>
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -8536,7 +8758,7 @@
       </c>
       <c r="F57" s="23">
         <f>SUM(F47:F56)</f>
-        <v>34.300000000000004</v>
+        <v>77.3</v>
       </c>
     </row>
   </sheetData>

--- a/ActivityTracker.xlsx
+++ b/ActivityTracker.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhastings\Documents\Personal\School\UNT\2016\FALL 2016\CSCE 4444\Project\Week 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhastings\Documents\Personal\School\UNT\2016\FALL 2016\CSCE 4444\Project\Week 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="129">
   <si>
     <t>Week-wise-Effort</t>
   </si>
@@ -495,6 +495,30 @@
   </si>
   <si>
     <t>Everyone has looked at the tutorials</t>
+  </si>
+  <si>
+    <t>Database setup</t>
+  </si>
+  <si>
+    <t>Need to set up to connect with Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User profile Interface/Activity </t>
+  </si>
+  <si>
+    <t>Database is now able to be connected to remotely</t>
+  </si>
+  <si>
+    <t>Relaying design to the actual app</t>
+  </si>
+  <si>
+    <t>Create tables in Database</t>
+  </si>
+  <si>
+    <t>Setting up tables to hold app data</t>
+  </si>
+  <si>
+    <t>Xingchi</t>
   </si>
 </sst>
 </file>
@@ -702,7 +726,85 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1475,10 +1577,10 @@
                   <c:v>488.09523809523819</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.952380952380945</c:v>
+                  <c:v>27.777777777777771</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>66.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1826,7 +1928,7 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.333333333333329</c:v>
+                  <c:v>54.166666666666657</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2225,7 +2327,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2828,7 +2930,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3147,10 +3249,10 @@
                   <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3159,7 +3261,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77.3</c:v>
+                  <c:v>87.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3913,10 +4015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J275"/>
+  <dimension ref="A1:J276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -5202,11 +5304,11 @@
         <v>107</v>
       </c>
       <c r="I46" s="18">
-        <f t="shared" ref="I46:I86" si="8">IF(OR(E46="", F46=""), "", E46-F46)</f>
+        <f t="shared" ref="I46:I87" si="8">IF(OR(E46="", F46=""), "", E46-F46)</f>
         <v>1.7</v>
       </c>
       <c r="J46" s="18">
-        <f t="shared" ref="J46:J86" si="9">IF(OR(I46="",F46=0),"",ABS(I46)/F46*100)</f>
+        <f t="shared" ref="J46:J87" si="9">IF(OR(I46="",F46=0),"",ABS(I46)/F46*100)</f>
         <v>566.66666666666674</v>
       </c>
     </row>
@@ -5516,22 +5618,19 @@
       <c r="E56" s="6">
         <v>3</v>
       </c>
-      <c r="F56" s="6">
-        <v>2</v>
-      </c>
       <c r="G56" s="30" t="s">
         <v>71</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I56" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J56" s="18">
+        <v/>
+      </c>
+      <c r="J56" s="18" t="str">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -5631,8 +5730,26 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="6">
+        <v>8</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="6">
+        <v>3</v>
+      </c>
       <c r="G62" s="30" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="I62" s="18" t="str">
         <f t="shared" si="8"/>
@@ -5644,8 +5761,26 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="6">
+        <v>8</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="6">
+        <v>1</v>
+      </c>
       <c r="G63" s="30" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="I63" s="18" t="str">
         <f t="shared" si="8"/>
@@ -5657,21 +5792,60 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="6">
+        <v>8</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="6">
+        <v>1</v>
+      </c>
+      <c r="F64" s="6">
+        <v>3</v>
+      </c>
       <c r="G64" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I64" s="18" t="str">
+      <c r="H64" t="s">
+        <v>124</v>
+      </c>
+      <c r="I64" s="18">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J64" s="18" t="str">
+        <v>-2</v>
+      </c>
+      <c r="J64" s="18">
         <f t="shared" si="9"/>
-        <v/>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="6">
+        <v>8</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="6">
+        <v>1</v>
+      </c>
       <c r="G65" s="30" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="H65" t="s">
+        <v>125</v>
       </c>
       <c r="I65" s="18" t="str">
         <f t="shared" si="8"/>
@@ -5683,47 +5857,122 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="6">
+        <v>8</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1</v>
+      </c>
+      <c r="F66" s="6">
+        <v>3</v>
+      </c>
       <c r="G66" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I66" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J66" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
+      <c r="H66" t="s">
+        <v>124</v>
+      </c>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="6">
+        <v>8</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" s="6">
+        <v>1</v>
+      </c>
+      <c r="F67" s="6">
+        <v>3</v>
+      </c>
       <c r="G67" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I67" s="18" t="str">
+      <c r="H67" t="s">
+        <v>124</v>
+      </c>
+      <c r="I67" s="18">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J67" s="18" t="str">
+        <v>-2</v>
+      </c>
+      <c r="J67" s="18">
         <f t="shared" si="9"/>
-        <v/>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="6">
+        <v>8</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" s="6">
+        <v>1</v>
+      </c>
+      <c r="F68" s="6">
+        <v>3</v>
+      </c>
       <c r="G68" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I68" s="18" t="str">
+      <c r="H68" t="s">
+        <v>124</v>
+      </c>
+      <c r="I68" s="18">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J68" s="18" t="str">
+        <v>-2</v>
+      </c>
+      <c r="J68" s="18">
         <f t="shared" si="9"/>
-        <v/>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="6">
+        <v>8</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" s="6">
+        <v>1</v>
+      </c>
       <c r="G69" s="30" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="H69" t="s">
+        <v>127</v>
       </c>
       <c r="I69" s="18" t="str">
         <f t="shared" si="8"/>
@@ -5735,16 +5984,27 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="3"/>
+      <c r="A70" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="6">
+        <v>8</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E70" s="6">
+        <v>1</v>
+      </c>
+      <c r="G70" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H70" t="s">
+        <v>127</v>
+      </c>
       <c r="I70" s="18" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5755,9 +6015,16 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G71" s="30" t="s">
-        <v>69</v>
-      </c>
+      <c r="A71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="3"/>
       <c r="I71" s="18" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5937,6 +6204,9 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G85" s="30" t="s">
+        <v>69</v>
+      </c>
       <c r="I85" s="18" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5947,16 +6217,6 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="3"/>
       <c r="I86" s="18" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5967,15 +6227,22 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G87" s="30" t="s">
-        <v>69</v>
-      </c>
+      <c r="A87" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="3"/>
       <c r="I87" s="18" t="str">
-        <f>IF(OR(E106="", F106=""), "", E106-F106)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J87" s="18" t="str">
-        <f>IF(OR(I87="",F106=0),"",ABS(I87)/F106*100)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5984,11 +6251,11 @@
         <v>69</v>
       </c>
       <c r="I88" s="18" t="str">
-        <f t="shared" ref="I88:I162" si="10">IF(OR(E88="", F88=""), "", E88-F88)</f>
+        <f>IF(OR(E107="", F107=""), "", E107-F107)</f>
         <v/>
       </c>
       <c r="J88" s="18" t="str">
-        <f t="shared" ref="J88:J162" si="11">IF(OR(I88="",F88=0),"",ABS(I88)/F88*100)</f>
+        <f>IF(OR(I88="",F107=0),"",ABS(I88)/F107*100)</f>
         <v/>
       </c>
     </row>
@@ -5996,8 +6263,14 @@
       <c r="G89" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
+      <c r="I89" s="18" t="str">
+        <f t="shared" ref="I89:I163" si="10">IF(OR(E89="", F89=""), "", E89-F89)</f>
+        <v/>
+      </c>
+      <c r="J89" s="18" t="str">
+        <f t="shared" ref="J89:J163" si="11">IF(OR(I89="",F89=0),"",ABS(I89)/F89*100)</f>
+        <v/>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G90" s="30" t="s">
@@ -6024,21 +6297,21 @@
       <c r="G93" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I93" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J93" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G94" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
+      <c r="I94" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J94" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G95" s="30" t="s">
@@ -6065,34 +6338,28 @@
       <c r="G98" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I98" s="18" t="str">
-        <f>IF(OR(E104="", F104=""), "", E104-F104)</f>
-        <v/>
-      </c>
-      <c r="J98" s="18" t="str">
-        <f>IF(OR(I98="",F104=0),"",ABS(I98)/F104*100)</f>
-        <v/>
-      </c>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G99" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
+      <c r="I99" s="18" t="str">
+        <f>IF(OR(E105="", F105=""), "", E105-F105)</f>
+        <v/>
+      </c>
+      <c r="J99" s="18" t="str">
+        <f>IF(OR(I99="",F105=0),"",ABS(I99)/F105*100)</f>
+        <v/>
+      </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G100" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I100" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J100" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G101" s="30" t="s">
@@ -6108,16 +6375,9 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="3"/>
+      <c r="G102" s="30" t="s">
+        <v>69</v>
+      </c>
       <c r="I102" s="18" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6128,9 +6388,16 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G103" s="30" t="s">
-        <v>69</v>
-      </c>
+      <c r="A103" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="3"/>
       <c r="I103" s="18" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6170,8 +6437,14 @@
       <c r="G106" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
+      <c r="I106" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J106" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G107" s="30" t="s">
@@ -6212,14 +6485,8 @@
       <c r="G112" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I112" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J112" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G113" s="30" t="s">
@@ -6248,16 +6515,9 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="28"/>
-      <c r="H115" s="3"/>
+      <c r="G115" s="30" t="s">
+        <v>69</v>
+      </c>
       <c r="I115" s="18" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6268,9 +6528,16 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G116" s="30" t="s">
-        <v>70</v>
-      </c>
+      <c r="A116" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B116" s="3"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="3"/>
       <c r="I116" s="18" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6282,23 +6549,23 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G117" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="I117" s="18"/>
-      <c r="J117" s="18"/>
+        <v>70</v>
+      </c>
+      <c r="I117" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J117" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G118" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I118" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J118" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="I118" s="18"/>
+      <c r="J118" s="18"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G119" s="30" t="s">
@@ -6327,6 +6594,9 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G121" s="30" t="s">
+        <v>69</v>
+      </c>
       <c r="I121" s="18" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6337,9 +6607,6 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>37</v>
-      </c>
       <c r="I122" s="18" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6350,6 +6617,9 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>37</v>
+      </c>
       <c r="I123" s="18" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6751,21 +7021,21 @@
     </row>
     <row r="163" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I163" s="18" t="str">
-        <f t="shared" ref="I163:I226" si="12">IF(OR(E163="", F163=""), "", E163-F163)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J163" s="18" t="str">
-        <f t="shared" ref="J163:J226" si="13">IF(OR(I163="",F163=0),"",ABS(I163)/F163*100)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I164" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="I164:I227" si="12">IF(OR(E164="", F164=""), "", E164-F164)</f>
         <v/>
       </c>
       <c r="J164" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="J164:J227" si="13">IF(OR(I164="",F164=0),"",ABS(I164)/F164*100)</f>
         <v/>
       </c>
     </row>
@@ -7391,21 +7661,21 @@
     </row>
     <row r="227" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I227" s="18" t="str">
-        <f t="shared" ref="I227:I268" si="14">IF(OR(E227="", F227=""), "", E227-F227)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J227" s="18" t="str">
-        <f t="shared" ref="J227:J275" si="15">IF(OR(I227="",F227=0),"",ABS(I227)/F227*100)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I228" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="I228:I269" si="14">IF(OR(E228="", F228=""), "", E228-F228)</f>
         <v/>
       </c>
       <c r="J228" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="J228:J276" si="15">IF(OR(I228="",F228=0),"",ABS(I228)/F228*100)</f>
         <v/>
       </c>
     </row>
@@ -7810,6 +8080,10 @@
       </c>
     </row>
     <row r="269" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I269" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="J269" s="18" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -7851,31 +8125,59 @@
         <v/>
       </c>
     </row>
+    <row r="276" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J276" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G26 G40 G49:G65536">
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G1:G26 G40 G49:G61 G64:G65 G67:G65537">
+    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:G39">
-    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="18" stopIfTrue="1" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G48">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"Delayed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62:G63">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"Delayed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -7887,7 +8189,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93:B97 B88:B91 B86 B99:B65535 B1:B84">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94:B98 B89:B92 B87 B100:B65536 B1:B85">
       <formula1>"Requirements, Design, Development, Testing, Preparation, Coordination, Documentation, Interfaces, Delivery"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
@@ -7911,7 +8213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -8221,15 +8523,15 @@
       <c r="D15" s="24"/>
       <c r="E15" s="24">
         <f>SUMIF(Activities!C:C,C15,Activities!J:J)</f>
-        <v>216.66666666666663</v>
+        <v>166.66666666666663</v>
       </c>
       <c r="F15" s="24">
         <f>DCOUNT(Activities!A:J,"Estimation Error %",G5:G6)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" s="25">
         <f t="shared" si="0"/>
-        <v>30.952380952380945</v>
+        <v>27.777777777777771</v>
       </c>
       <c r="H15" s="24"/>
     </row>
@@ -8243,15 +8545,15 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24">
         <f>SUMIF(Activities!C:C,C16,Activities!J:J)</f>
-        <v>0</v>
+        <v>199.99999999999997</v>
       </c>
       <c r="F16" s="24">
         <f>DCOUNT(Activities!A:J,"Estimation Error %",H5:H6)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="H16" s="24"/>
     </row>
@@ -8331,7 +8633,7 @@
       </c>
       <c r="F23" s="23">
         <f>SUMIF(Activities!B:B,A23,Activities!F:F)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -8514,15 +8816,15 @@
       </c>
       <c r="C38" s="23">
         <f>SUMIF(Activities!B:B,A38,Activities!J:J)</f>
-        <v>66.666666666666657</v>
+        <v>216.66666666666663</v>
       </c>
       <c r="D38" s="23">
         <f>DCOUNT(Activities!A:J,"Estimation Error %",C32:C33)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E38" s="23">
         <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
+        <v>54.166666666666657</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -8713,7 +9015,7 @@
       </c>
       <c r="F53" s="23">
         <f>SUMIF(Activities!C:C,C53,Activities!F:F)</f>
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -8725,7 +9027,7 @@
       </c>
       <c r="F54" s="23">
         <f>SUMIF(Activities!C:C,C54,Activities!F:F)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -8758,7 +9060,7 @@
       </c>
       <c r="F57" s="23">
         <f>SUM(F47:F56)</f>
-        <v>77.3</v>
+        <v>87.3</v>
       </c>
     </row>
   </sheetData>
@@ -8772,7 +9074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>

--- a/ActivityTracker.xlsx
+++ b/ActivityTracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhastings\Documents\Personal\School\UNT\2016\FALL 2016\CSCE 4444\Project\Week 8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhastings\Documents\Personal\School\UNT\2016\FALL 2016\CSCE 4444\Project\Week 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="144">
   <si>
     <t>Week-wise-Effort</t>
   </si>
@@ -519,6 +519,51 @@
   </si>
   <si>
     <t>Xingchi</t>
+  </si>
+  <si>
+    <t>Login funcitonality added to the app</t>
+  </si>
+  <si>
+    <t>UI Complete for Statistics functionality</t>
+  </si>
+  <si>
+    <t>UI Complete for Home screen</t>
+  </si>
+  <si>
+    <t>UI Complete for User profile screen</t>
+  </si>
+  <si>
+    <t>UI Complete for Friends List screens</t>
+  </si>
+  <si>
+    <t>UI Complete for Exercises screens</t>
+  </si>
+  <si>
+    <t>UI Complete for Workouts screens</t>
+  </si>
+  <si>
+    <t>UI Complete for Diet screens</t>
+  </si>
+  <si>
+    <t>Fixed bug for Logout not sending user to the Login screen</t>
+  </si>
+  <si>
+    <t>Database Table Creation</t>
+  </si>
+  <si>
+    <t>Screens are complete. But still need to check for user credentials and interact with database</t>
+  </si>
+  <si>
+    <t>Screens are implimented. But still need to pull data that is entered by user and have interaction with database</t>
+  </si>
+  <si>
+    <t>Layout is implemented, need to refine to interact with database. Task will be created to get another member to implement database interaction.</t>
+  </si>
+  <si>
+    <t>Logout menu option now takes the user to login screen.</t>
+  </si>
+  <si>
+    <t>Tables have been created to hold data.</t>
   </si>
 </sst>
 </file>
@@ -726,33 +771,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -1583,7 +1602,7 @@
                   <c:v>66.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>29.166666666666668</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1928,7 +1947,7 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.166666666666657</c:v>
+                  <c:v>35.416666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2327,7 +2346,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2930,7 +2949,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3255,13 +3274,13 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.3</c:v>
+                  <c:v>106.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4017,8 +4036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -6035,164 +6054,428 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="6">
+        <v>9</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1</v>
+      </c>
+      <c r="F72" s="6">
+        <v>2</v>
+      </c>
       <c r="G72" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I72" s="18" t="str">
+      <c r="H72" t="s">
+        <v>139</v>
+      </c>
+      <c r="I72" s="18">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J72" s="18" t="str">
+        <v>-1</v>
+      </c>
+      <c r="J72" s="18">
         <f t="shared" si="9"/>
-        <v/>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="6">
+        <v>9</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73" s="6">
+        <v>1</v>
+      </c>
+      <c r="F73" s="6">
+        <v>2</v>
+      </c>
       <c r="G73" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I73" s="18" t="str">
+      <c r="H73" t="s">
+        <v>140</v>
+      </c>
+      <c r="I73" s="18">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J73" s="18" t="str">
+        <v>-1</v>
+      </c>
+      <c r="J73" s="18">
         <f t="shared" si="9"/>
-        <v/>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="6">
+        <v>9</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1</v>
+      </c>
+      <c r="F74" s="6">
+        <v>1</v>
+      </c>
       <c r="G74" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I74" s="18" t="str">
+      <c r="H74" t="s">
+        <v>141</v>
+      </c>
+      <c r="I74" s="18">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J74" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="J74" s="18">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" s="6">
+        <v>9</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1</v>
+      </c>
+      <c r="F75" s="6">
+        <v>1</v>
+      </c>
       <c r="G75" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I75" s="18" t="str">
+      <c r="H75" t="s">
+        <v>141</v>
+      </c>
+      <c r="I75" s="18">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J75" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="J75" s="18">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" s="6">
+        <v>9</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E76" s="6">
+        <v>1</v>
+      </c>
+      <c r="F76" s="6">
+        <v>2</v>
+      </c>
       <c r="G76" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I76" s="18" t="str">
+      <c r="H76" t="s">
+        <v>141</v>
+      </c>
+      <c r="I76" s="18">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J76" s="18" t="str">
+        <v>-1</v>
+      </c>
+      <c r="J76" s="18">
         <f t="shared" si="9"/>
-        <v/>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="6">
+        <v>9</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E77" s="6">
+        <v>1</v>
+      </c>
+      <c r="F77" s="6">
+        <v>1</v>
+      </c>
       <c r="G77" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I77" s="18" t="str">
+      <c r="H77" t="s">
+        <v>141</v>
+      </c>
+      <c r="I77" s="18">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J77" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="J77" s="18">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="6">
+        <v>9</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E78" s="6">
+        <v>1</v>
+      </c>
+      <c r="F78" s="6">
+        <v>2</v>
+      </c>
       <c r="G78" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I78" s="18" t="str">
+      <c r="H78" t="s">
+        <v>141</v>
+      </c>
+      <c r="I78" s="18">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J78" s="18" t="str">
+        <v>-1</v>
+      </c>
+      <c r="J78" s="18">
         <f t="shared" si="9"/>
-        <v/>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="6">
+        <v>9</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79" s="6">
+        <v>1</v>
+      </c>
+      <c r="F79" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G79" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I79" s="18" t="str">
+      <c r="H79" t="s">
+        <v>141</v>
+      </c>
+      <c r="I79" s="18">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J79" s="18" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="J79" s="18">
         <f t="shared" si="9"/>
-        <v/>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" s="6">
+        <v>9</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E80" s="6">
+        <v>1</v>
+      </c>
+      <c r="F80" s="6">
+        <v>2</v>
+      </c>
       <c r="G80" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I80" s="18" t="str">
+      <c r="H80" t="s">
+        <v>142</v>
+      </c>
+      <c r="I80" s="18">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J80" s="18" t="str">
+        <v>-1</v>
+      </c>
+      <c r="J80" s="18">
         <f t="shared" si="9"/>
-        <v/>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B81" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" s="6">
+        <v>9</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81" s="6">
+        <v>2</v>
+      </c>
+      <c r="F81" s="6">
+        <v>2</v>
+      </c>
       <c r="G81" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I81" s="18" t="str">
+      <c r="H81" t="s">
+        <v>143</v>
+      </c>
+      <c r="I81" s="18">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J81" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="J81" s="18">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B82" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" s="6">
+        <v>9</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E82" s="6">
+        <v>2</v>
+      </c>
+      <c r="F82" s="6">
+        <v>2</v>
+      </c>
       <c r="G82" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I82" s="18" t="str">
+      <c r="H82" t="s">
+        <v>143</v>
+      </c>
+      <c r="I82" s="18">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J82" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="J82" s="18">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" s="6">
+        <v>9</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" s="6">
+        <v>2</v>
+      </c>
+      <c r="F83" s="6">
+        <v>2</v>
+      </c>
       <c r="G83" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I83" s="18" t="str">
+      <c r="H83" t="s">
+        <v>143</v>
+      </c>
+      <c r="I83" s="18">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J83" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="J83" s="18">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>115</v>
+      </c>
+      <c r="B84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" s="6">
+        <v>9</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="G84" s="30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I84" s="18" t="str">
         <f t="shared" si="8"/>
@@ -8134,46 +8417,46 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G1:G26 G40 G49:G61 G64:G65 G67:G65537">
-    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="19" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="20" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:G39">
-    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="16" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="17" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="18" stopIfTrue="1" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G48">
-    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" stopIfTrue="1" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62:G63">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8567,15 +8850,15 @@
       <c r="D17" s="24"/>
       <c r="E17" s="24">
         <f>SUMIF(Activities!C:C,C17,Activities!J:J)</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="F17" s="24">
         <f>DCOUNT(Activities!A:J,"Estimation Error %",I5:I6)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G17" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29.166666666666668</v>
       </c>
       <c r="H17" s="24"/>
     </row>
@@ -8633,7 +8916,7 @@
       </c>
       <c r="F23" s="23">
         <f>SUMIF(Activities!B:B,A23,Activities!F:F)</f>
-        <v>15</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -8816,15 +9099,15 @@
       </c>
       <c r="C38" s="23">
         <f>SUMIF(Activities!B:B,A38,Activities!J:J)</f>
-        <v>216.66666666666663</v>
+        <v>566.66666666666663</v>
       </c>
       <c r="D38" s="23">
         <f>DCOUNT(Activities!A:J,"Estimation Error %",C32:C33)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E38" s="23">
         <f t="shared" si="1"/>
-        <v>54.166666666666657</v>
+        <v>35.416666666666664</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -9039,7 +9322,7 @@
       </c>
       <c r="F55" s="23">
         <f>SUMIF(Activities!C:C,C55,Activities!F:F)</f>
-        <v>0</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -9060,7 +9343,7 @@
       </c>
       <c r="F57" s="23">
         <f>SUM(F47:F56)</f>
-        <v>87.3</v>
+        <v>106.8</v>
       </c>
     </row>
   </sheetData>

--- a/ActivityTracker.xlsx
+++ b/ActivityTracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhastings\Documents\Personal\School\UNT\2016\FALL 2016\CSCE 4444\Project\Week 9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhastings\Documents\Personal\School\UNT\2016\FALL 2016\CSCE 4444\Project\Week 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="150">
   <si>
     <t>Week-wise-Effort</t>
   </si>
@@ -564,6 +564,24 @@
   </si>
   <si>
     <t>Tables have been created to hold data.</t>
+  </si>
+  <si>
+    <t>Uploaded To Do list of items left to complete in Repository</t>
+  </si>
+  <si>
+    <t>Set up user login and registration to interact with database</t>
+  </si>
+  <si>
+    <t>Add default workouts to the Activities page</t>
+  </si>
+  <si>
+    <t>Add default exercises to the Activities page</t>
+  </si>
+  <si>
+    <t>Need to put an image on the Workouts pages</t>
+  </si>
+  <si>
+    <t>Database tables adjsutments</t>
   </si>
 </sst>
 </file>
@@ -771,7 +789,33 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2355,7 +2399,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.800000000000004</c:v>
+                  <c:v>26.050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2958,7 +3002,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.800000000000004</c:v>
+                  <c:v>26.050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3277,10 +3321,10 @@
                   <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>106.8</c:v>
+                  <c:v>107.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4036,13 +4080,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="6" customWidth="1"/>
@@ -6530,6 +6574,24 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" s="6">
+        <v>10</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E88" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="F88" s="6">
+        <v>0.25</v>
+      </c>
       <c r="G88" s="30" t="s">
         <v>69</v>
       </c>
@@ -6543,8 +6605,20 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" t="s">
+        <v>50</v>
+      </c>
+      <c r="C89" s="6">
+        <v>10</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="G89" s="30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I89" s="18" t="str">
         <f t="shared" ref="I89:I163" si="10">IF(OR(E89="", F89=""), "", E89-F89)</f>
@@ -6556,36 +6630,96 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="6">
+        <v>10</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="G90" s="30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="18"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>149</v>
+      </c>
+      <c r="B91" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" s="6">
+        <v>10</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="G91" s="30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="18"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>149</v>
+      </c>
+      <c r="B92" t="s">
+        <v>49</v>
+      </c>
+      <c r="C92" s="6">
+        <v>10</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="G92" s="30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I92" s="18"/>
       <c r="J92" s="18"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>146</v>
+      </c>
+      <c r="B93" t="s">
+        <v>49</v>
+      </c>
+      <c r="C93" s="6">
+        <v>10</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="G93" s="30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I93" s="18"/>
       <c r="J93" s="18"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>147</v>
+      </c>
+      <c r="B94" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" s="6">
+        <v>10</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="G94" s="30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I94" s="18" t="str">
         <f t="shared" si="10"/>
@@ -6597,15 +6731,39 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95" s="6">
+        <v>10</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="G95" s="30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I95" s="18"/>
       <c r="J95" s="18"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>149</v>
+      </c>
+      <c r="B96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" s="6">
+        <v>10</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="G96" s="30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I96" s="18"/>
       <c r="J96" s="18"/>
@@ -8416,7 +8574,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G26 G40 G49:G61 G64:G65 G67:G65537">
+  <conditionalFormatting sqref="G1:G26 G40 G49:G61 G64:G65 G67:G88 G97:G65537">
+    <cfRule type="cellIs" dxfId="17" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"Delayed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="24" stopIfTrue="1" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:G39">
     <cfRule type="cellIs" dxfId="14" priority="19" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -8427,18 +8596,18 @@
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G39">
-    <cfRule type="cellIs" dxfId="11" priority="16" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G41:G48">
+    <cfRule type="cellIs" dxfId="11" priority="13" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" stopIfTrue="1" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:G48">
+  <conditionalFormatting sqref="G62:G63">
     <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -8449,18 +8618,18 @@
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G62:G63">
-    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
+  <conditionalFormatting sqref="G89:G96">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -8472,7 +8641,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94:B98 B89:B92 B87 B100:B65536 B1:B85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B85 B87 B100:B65536 B89:B98">
       <formula1>"Requirements, Design, Development, Testing, Preparation, Coordination, Documentation, Interfaces, Delivery"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
@@ -8943,7 +9112,7 @@
       </c>
       <c r="F26" s="23">
         <f>SUMIF(Activities!B:B,A26,Activities!F:F)</f>
-        <v>25.800000000000004</v>
+        <v>26.050000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -9334,7 +9503,7 @@
       </c>
       <c r="F56" s="23">
         <f>SUMIF(Activities!C:C,C56,Activities!F:F)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -9343,7 +9512,7 @@
       </c>
       <c r="F57" s="23">
         <f>SUM(F47:F56)</f>
-        <v>106.8</v>
+        <v>107.05</v>
       </c>
     </row>
   </sheetData>

--- a/ActivityTracker.xlsx
+++ b/ActivityTracker.xlsx
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="157">
   <si>
     <t>Week-wise-Effort</t>
   </si>
@@ -582,6 +582,27 @@
   </si>
   <si>
     <t>Database tables adjsutments</t>
+  </si>
+  <si>
+    <t>Adjusting on an as-needed basis</t>
+  </si>
+  <si>
+    <t>Create default workouts to be added to every user's profile</t>
+  </si>
+  <si>
+    <t>Create default exercises to be added to every user's profile</t>
+  </si>
+  <si>
+    <t>Need images for workouts</t>
+  </si>
+  <si>
+    <t>Make sure user is able to register and have data saved in database</t>
+  </si>
+  <si>
+    <t>Logo for login screen</t>
+  </si>
+  <si>
+    <t>List of all remaining tasks for the project</t>
   </si>
 </sst>
 </file>
@@ -4080,7 +4101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
@@ -4093,7 +4114,7 @@
     <col min="5" max="5" width="11" style="6" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="48.28515625" customWidth="1"/>
+    <col min="8" max="8" width="122.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.28515625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6595,6 +6616,9 @@
       <c r="G88" s="30" t="s">
         <v>69</v>
       </c>
+      <c r="H88" t="s">
+        <v>156</v>
+      </c>
       <c r="I88" s="18" t="str">
         <f>IF(OR(E107="", F107=""), "", E107-F107)</f>
         <v/>
@@ -6620,6 +6644,9 @@
       <c r="G89" s="30" t="s">
         <v>71</v>
       </c>
+      <c r="H89" t="s">
+        <v>155</v>
+      </c>
       <c r="I89" s="18" t="str">
         <f t="shared" ref="I89:I163" si="10">IF(OR(E89="", F89=""), "", E89-F89)</f>
         <v/>
@@ -6645,6 +6672,9 @@
       <c r="G90" s="30" t="s">
         <v>71</v>
       </c>
+      <c r="H90" t="s">
+        <v>154</v>
+      </c>
       <c r="I90" s="18"/>
       <c r="J90" s="18"/>
     </row>
@@ -6664,6 +6694,9 @@
       <c r="G91" s="30" t="s">
         <v>71</v>
       </c>
+      <c r="H91" t="s">
+        <v>150</v>
+      </c>
       <c r="I91" s="18"/>
       <c r="J91" s="18"/>
     </row>
@@ -6683,6 +6716,9 @@
       <c r="G92" s="30" t="s">
         <v>71</v>
       </c>
+      <c r="H92" t="s">
+        <v>150</v>
+      </c>
       <c r="I92" s="18"/>
       <c r="J92" s="18"/>
     </row>
@@ -6702,6 +6738,9 @@
       <c r="G93" s="30" t="s">
         <v>71</v>
       </c>
+      <c r="H93" t="s">
+        <v>151</v>
+      </c>
       <c r="I93" s="18"/>
       <c r="J93" s="18"/>
     </row>
@@ -6721,6 +6760,9 @@
       <c r="G94" s="30" t="s">
         <v>71</v>
       </c>
+      <c r="H94" t="s">
+        <v>152</v>
+      </c>
       <c r="I94" s="18" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6746,6 +6788,9 @@
       <c r="G95" s="30" t="s">
         <v>71</v>
       </c>
+      <c r="H95" t="s">
+        <v>153</v>
+      </c>
       <c r="I95" s="18"/>
       <c r="J95" s="18"/>
     </row>
@@ -6764,6 +6809,9 @@
       </c>
       <c r="G96" s="30" t="s">
         <v>71</v>
+      </c>
+      <c r="H96" t="s">
+        <v>150</v>
       </c>
       <c r="I96" s="18"/>
       <c r="J96" s="18"/>

--- a/ActivityTracker.xlsx
+++ b/ActivityTracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhastings\Documents\Personal\School\UNT\2016\FALL 2016\CSCE 4444\Project\Week 10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhastings\Documents\Personal\School\UNT\2016\FALL 2016\CSCE 4444\Project\Week 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="161">
   <si>
     <t>Week-wise-Effort</t>
   </si>
@@ -603,6 +603,18 @@
   </si>
   <si>
     <t>List of all remaining tasks for the project</t>
+  </si>
+  <si>
+    <t>Users are now unable to login without registering with an account</t>
+  </si>
+  <si>
+    <t>Adjustments have been made and discussed to accommodate for requirement updates on preloaded exercises</t>
+  </si>
+  <si>
+    <t>GPS Running Tracker feature</t>
+  </si>
+  <si>
+    <t>Develop feature to allow users to track their runs and send data to the database</t>
   </si>
 </sst>
 </file>
@@ -810,7 +822,33 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1670,7 +1708,7 @@
                   <c:v>29.166666666666668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2012,7 +2050,7 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.416666666666664</c:v>
+                  <c:v>37.037037037037038</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2021,7 +2059,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>274.35897435897448</c:v>
+                  <c:v>258.33333333333343</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2411,7 +2449,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.5</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3014,7 +3052,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.5</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4101,8 +4139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -6619,13 +6657,13 @@
       <c r="H88" t="s">
         <v>156</v>
       </c>
-      <c r="I88" s="18" t="str">
+      <c r="I88" s="18">
         <f>IF(OR(E107="", F107=""), "", E107-F107)</f>
-        <v/>
-      </c>
-      <c r="J88" s="18" t="str">
+        <v>-0.25</v>
+      </c>
+      <c r="J88" s="18">
         <f>IF(OR(I88="",F107=0),"",ABS(I88)/F107*100)</f>
-        <v/>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -6834,13 +6872,13 @@
       <c r="G99" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I99" s="18" t="str">
+      <c r="I99" s="18">
         <f>IF(OR(E105="", F105=""), "", E105-F105)</f>
-        <v/>
-      </c>
-      <c r="J99" s="18" t="str">
+        <v>-4</v>
+      </c>
+      <c r="J99" s="18">
         <f>IF(OR(I99="",F105=0),"",ABS(I99)/F105*100)</f>
-        <v/>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -6897,8 +6935,23 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" t="s">
+        <v>50</v>
+      </c>
+      <c r="C104" s="6">
+        <v>11</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="G104" s="30" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="H104" t="s">
+        <v>155</v>
       </c>
       <c r="I104" s="18" t="str">
         <f t="shared" si="10"/>
@@ -6910,69 +6963,225 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>145</v>
+      </c>
+      <c r="B105" t="s">
+        <v>49</v>
+      </c>
+      <c r="C105" s="6">
+        <v>11</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E105" s="6">
+        <v>4</v>
+      </c>
+      <c r="F105" s="6">
+        <v>8</v>
+      </c>
       <c r="G105" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I105" s="18" t="str">
+      <c r="H105" t="s">
+        <v>157</v>
+      </c>
+      <c r="I105" s="18">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J105" s="18" t="str">
+        <v>-4</v>
+      </c>
+      <c r="J105" s="18">
         <f t="shared" si="11"/>
-        <v/>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>149</v>
+      </c>
+      <c r="B106" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" s="6">
+        <v>11</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E106" s="6">
+        <v>1</v>
+      </c>
+      <c r="F106" s="6">
+        <v>2</v>
+      </c>
       <c r="G106" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I106" s="18" t="str">
+      <c r="H106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I106" s="18">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J106" s="18" t="str">
+        <v>-1</v>
+      </c>
+      <c r="J106" s="18">
         <f t="shared" si="11"/>
-        <v/>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>149</v>
+      </c>
+      <c r="B107" t="s">
+        <v>49</v>
+      </c>
+      <c r="C107" s="6">
+        <v>11</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E107" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="F107" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G107" s="30" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="H107" t="s">
+        <v>158</v>
       </c>
       <c r="I107" s="18"/>
       <c r="J107" s="18"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>146</v>
+      </c>
+      <c r="B108" t="s">
+        <v>49</v>
+      </c>
+      <c r="C108" s="6">
+        <v>11</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E108" s="6">
+        <v>2</v>
+      </c>
       <c r="G108" s="30" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="H108" t="s">
+        <v>151</v>
       </c>
       <c r="I108" s="18"/>
       <c r="J108" s="18"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>147</v>
+      </c>
+      <c r="B109" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109" s="6">
+        <v>11</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E109" s="6">
+        <v>1</v>
+      </c>
+      <c r="F109" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G109" s="30" t="s">
         <v>69</v>
       </c>
+      <c r="H109" t="s">
+        <v>152</v>
+      </c>
       <c r="I109" s="18"/>
       <c r="J109" s="18"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>148</v>
+      </c>
+      <c r="B110" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110" s="6">
+        <v>11</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="G110" s="30" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="H110" t="s">
+        <v>153</v>
       </c>
       <c r="I110" s="18"/>
       <c r="J110" s="18"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>149</v>
+      </c>
+      <c r="B111" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" s="6">
+        <v>11</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E111" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="F111" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G111" s="30" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="H111" t="s">
+        <v>158</v>
       </c>
       <c r="I111" s="18"/>
       <c r="J111" s="18"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>159</v>
+      </c>
+      <c r="B112" t="s">
+        <v>49</v>
+      </c>
+      <c r="C112" s="6">
+        <v>11</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E112" s="6">
+        <v>5</v>
+      </c>
       <c r="G112" s="30" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="H112" t="s">
+        <v>160</v>
       </c>
       <c r="I112" s="18"/>
       <c r="J112" s="18"/>
@@ -8622,7 +8831,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G26 G40 G49:G61 G64:G65 G67:G88 G97:G65537">
+  <conditionalFormatting sqref="G1:G26 G40 G49:G61 G64:G65 G67:G88 G97:G103 G112:G65537">
+    <cfRule type="cellIs" dxfId="20" priority="25" stopIfTrue="1" operator="equal">
+      <formula>"Delayed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="26" stopIfTrue="1" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="27" stopIfTrue="1" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:G39">
     <cfRule type="cellIs" dxfId="17" priority="22" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -8633,18 +8853,18 @@
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G39">
-    <cfRule type="cellIs" dxfId="14" priority="19" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G41:G48">
+    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="18" stopIfTrue="1" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:G48">
+  <conditionalFormatting sqref="G62:G63">
     <cfRule type="cellIs" dxfId="11" priority="13" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -8655,18 +8875,18 @@
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G62:G63">
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
+  <conditionalFormatting sqref="G89:G96">
     <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -8677,7 +8897,7 @@
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G89:G96">
+  <conditionalFormatting sqref="G104:G111">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -8689,7 +8909,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B85 B87 B100:B65536 B89:B98">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B85 B87 B89:B98 B100:B65536">
       <formula1>"Requirements, Design, Development, Testing, Preparation, Coordination, Documentation, Interfaces, Delivery"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
@@ -9089,15 +9309,15 @@
       <c r="D18" s="24"/>
       <c r="E18" s="24">
         <f>SUMIF(Activities!C:C,C18,Activities!J:J)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F18" s="24">
         <f>DCOUNT(Activities!A:J,"Estimation Error %",J5:J6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H18" s="24"/>
     </row>
@@ -9133,7 +9353,7 @@
       </c>
       <c r="F23" s="23">
         <f>SUMIF(Activities!B:B,A23,Activities!F:F)</f>
-        <v>34.5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -9316,15 +9536,15 @@
       </c>
       <c r="C38" s="23">
         <f>SUMIF(Activities!B:B,A38,Activities!J:J)</f>
-        <v>566.66666666666663</v>
+        <v>666.66666666666663</v>
       </c>
       <c r="D38" s="23">
         <f>DCOUNT(Activities!A:J,"Estimation Error %",C32:C33)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E38" s="23">
         <f t="shared" si="1"/>
-        <v>35.416666666666664</v>
+        <v>37.037037037037038</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -9367,15 +9587,15 @@
       </c>
       <c r="C41" s="23">
         <f>SUMIF(Activities!B:B,A41,Activities!J:J)</f>
-        <v>3566.6666666666683</v>
+        <v>3616.6666666666683</v>
       </c>
       <c r="D41" s="23">
         <f>DCOUNT(Activities!A:J,"Estimation Error %",F32:F33)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E41" s="23">
         <f t="shared" si="1"/>
-        <v>274.35897435897448</v>
+        <v>258.33333333333343</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">

--- a/ActivityTracker.xlsx
+++ b/ActivityTracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhastings\Documents\Personal\School\UNT\2016\FALL 2016\CSCE 4444\Project\Week 11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhastings\Documents\Personal\School\UNT\2016\FALL 2016\CSCE 4444\Project\Week 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="171">
   <si>
     <t>Week-wise-Effort</t>
   </si>
@@ -244,10 +244,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>and so on</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Activity</t>
   </si>
   <si>
@@ -615,6 +611,39 @@
   </si>
   <si>
     <t>Develop feature to allow users to track their runs and send data to the database</t>
+  </si>
+  <si>
+    <t>Fix bug with login and registration</t>
+  </si>
+  <si>
+    <t>Meaningful messages display when correct and incorrect fields are entered</t>
+  </si>
+  <si>
+    <t>Activities Center - Workouts list</t>
+  </si>
+  <si>
+    <t>When Activities Page is loaded, The user's workouts will display in a list view and are clickable</t>
+  </si>
+  <si>
+    <t>Workout View</t>
+  </si>
+  <si>
+    <t>When workout is selected from user's list of workouts, the workout view screen loads and populates all fields associated with that workout</t>
+  </si>
+  <si>
+    <t>Edit Workout</t>
+  </si>
+  <si>
+    <t>User is now able to edit a workout and save the changes. Workout view is loaded after save and populates updated information in the database</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Adding images and design improvements to the UI</t>
+  </si>
+  <si>
+    <t>UI Design improvements</t>
   </si>
 </sst>
 </file>
@@ -822,7 +851,137 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2047,10 +2206,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>55.55555555555555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.037037037037038</c:v>
+                  <c:v>37.698412698412696</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2446,10 +2605,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3049,10 +3208,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4137,10 +4296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J276"/>
+  <dimension ref="A1:J278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -4158,31 +4317,31 @@
   <sheetData>
     <row r="1" spans="1:10" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="H1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>55</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>14</v>
@@ -4190,7 +4349,7 @@
     </row>
     <row r="2" spans="1:10" s="33" customFormat="1" ht="30.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -4206,7 +4365,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
@@ -4224,16 +4383,16 @@
     </row>
     <row r="4" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="8">
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="8">
         <v>6</v>
@@ -4242,10 +4401,10 @@
         <v>6</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" si="0"/>
@@ -4258,16 +4417,16 @@
     </row>
     <row r="5" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="8">
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="8">
         <v>0.5</v>
@@ -4276,10 +4435,10 @@
         <v>0.25</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I5" s="18">
         <f t="shared" si="0"/>
@@ -4292,16 +4451,16 @@
     </row>
     <row r="6" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="8">
         <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="8">
         <v>1</v>
@@ -4310,10 +4469,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6" s="18">
         <f t="shared" si="0"/>
@@ -4326,16 +4485,16 @@
     </row>
     <row r="7" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="8">
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="8">
         <v>2</v>
@@ -4344,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7" s="18">
         <f t="shared" si="0"/>
@@ -4360,16 +4519,16 @@
     </row>
     <row r="8" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="8">
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="8">
         <v>10</v>
@@ -4378,10 +4537,10 @@
         <v>10</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" s="18">
         <f t="shared" si="0"/>
@@ -4400,7 +4559,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="18" t="str">
@@ -4420,7 +4579,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="18" t="str">
@@ -4440,7 +4599,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="18" t="str">
@@ -4460,7 +4619,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="18" t="str">
@@ -4476,7 +4635,7 @@
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="G13" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I13" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4491,7 +4650,7 @@
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="G14" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I14" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4516,16 +4675,16 @@
     </row>
     <row r="16" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="8">
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="8">
         <v>1.5</v>
@@ -4534,10 +4693,10 @@
         <v>1.5</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" s="18">
         <f t="shared" ref="I16:I25" si="2">IF(OR(E16="", F16=""), "", E16-F16)</f>
@@ -4550,26 +4709,26 @@
     </row>
     <row r="17" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="8">
         <v>4</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="8">
         <v>2</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I17" s="18" t="str">
         <f t="shared" si="2"/>
@@ -4582,16 +4741,16 @@
     </row>
     <row r="18" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="8">
         <v>4</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="8">
         <v>0.75</v>
@@ -4600,10 +4759,10 @@
         <v>0.75</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I18" s="18">
         <f t="shared" si="2"/>
@@ -4616,26 +4775,26 @@
     </row>
     <row r="19" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="8">
         <v>4</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="8">
         <v>8</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I19" s="18" t="str">
         <f>IF(OR(E19="", F19=""), "", E19-F19)</f>
@@ -4648,26 +4807,26 @@
     </row>
     <row r="20" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="8">
         <v>4</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" s="8">
         <v>2</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I20" s="18" t="str">
         <f>IF(OR(E20="", F20=""), "", E20-F20)</f>
@@ -4680,26 +4839,26 @@
     </row>
     <row r="21" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="8">
         <v>4</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="8">
         <v>2</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I21" s="18" t="str">
         <f>IF(OR(E21="", F21=""), "", E21-F21)</f>
@@ -4712,26 +4871,26 @@
     </row>
     <row r="22" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="8">
         <v>4</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="8">
         <v>2</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I22" s="18" t="str">
         <f>IF(OR(E22="", F22=""), "", E22-F22)</f>
@@ -4744,26 +4903,26 @@
     </row>
     <row r="23" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="8">
         <v>4</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="8">
         <v>2</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I23" s="18" t="str">
         <f>IF(OR(E23="", F23=""), "", E23-F23)</f>
@@ -4776,25 +4935,25 @@
     </row>
     <row r="24" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="8">
         <v>4</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E24" s="8">
         <v>2</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I24" s="18" t="str">
         <f t="shared" si="2"/>
@@ -4807,26 +4966,26 @@
     </row>
     <row r="25" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="8">
         <v>4</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="8">
         <v>2</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I25" s="18" t="str">
         <f t="shared" si="2"/>
@@ -4851,16 +5010,16 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="8">
         <v>5</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="8">
         <v>8</v>
@@ -4869,10 +5028,10 @@
         <v>8</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I27" s="18">
         <f>IF(OR(E27="", F27=""), "", E27-F27)</f>
@@ -4885,26 +5044,26 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="8">
         <v>5</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="8">
         <v>2</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I28" s="18" t="str">
         <f>IF(OR(E28="", F28=""), "", E28-F28)</f>
@@ -4917,26 +5076,26 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="8">
         <v>5</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" s="8">
         <v>2</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I29" s="18" t="str">
         <f>IF(OR(E29="", F29=""), "", E29-F29)</f>
@@ -4949,26 +5108,26 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="8">
         <v>5</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" s="8">
         <v>2</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I30" s="18" t="str">
         <f>IF(OR(E30="", F30=""), "", E30-F30)</f>
@@ -4981,26 +5140,26 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="8">
         <v>5</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E31" s="8">
         <v>2</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I31" s="18" t="str">
         <f>IF(OR(E31="", F31=""), "", E31-F31)</f>
@@ -5013,25 +5172,25 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="8">
         <v>5</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E32" s="8">
         <v>2</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I32" s="18" t="str">
         <f t="shared" ref="I32:I39" si="4">IF(OR(E32="", F32=""), "", E32-F32)</f>
@@ -5044,26 +5203,26 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="8">
         <v>5</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="8">
         <v>2</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I33" s="18" t="str">
         <f t="shared" si="4"/>
@@ -5076,26 +5235,26 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="8">
         <v>5</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E34" s="8">
         <v>2.5</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I34" s="18" t="str">
         <f t="shared" si="4"/>
@@ -5108,26 +5267,26 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="8">
         <v>5</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" s="8">
         <v>8</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I35" s="18" t="str">
         <f t="shared" si="4"/>
@@ -5232,16 +5391,16 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="8">
         <v>6</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E41" s="8">
         <v>2</v>
@@ -5250,10 +5409,10 @@
         <v>0.3</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I41" s="18">
         <f t="shared" si="6"/>
@@ -5266,16 +5425,16 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="8">
         <v>6</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E42" s="8">
         <v>2</v>
@@ -5284,10 +5443,10 @@
         <v>0.3</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I42" s="18">
         <f t="shared" si="6"/>
@@ -5300,16 +5459,16 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="8">
         <v>6</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E43" s="8">
         <v>2</v>
@@ -5318,10 +5477,10 @@
         <v>0.3</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I43" s="18">
         <f t="shared" si="6"/>
@@ -5334,16 +5493,16 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="8">
         <v>6</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E44" s="8">
         <v>2</v>
@@ -5352,10 +5511,10 @@
         <v>0.3</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I44" s="18">
         <f t="shared" si="6"/>
@@ -5368,16 +5527,16 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="8">
         <v>6</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E45" s="8">
         <v>2</v>
@@ -5386,10 +5545,10 @@
         <v>0.3</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I45" s="18">
         <f t="shared" si="6"/>
@@ -5402,16 +5561,16 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" s="8">
         <v>6</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E46" s="8">
         <v>2</v>
@@ -5420,10 +5579,10 @@
         <v>0.3</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I46" s="18">
         <f t="shared" ref="I46:I87" si="8">IF(OR(E46="", F46=""), "", E46-F46)</f>
@@ -5436,16 +5595,16 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47" s="8">
         <v>6</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E47" s="8">
         <v>2.5</v>
@@ -5454,10 +5613,10 @@
         <v>3</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I47" s="18">
         <f t="shared" si="8"/>
@@ -5470,26 +5629,26 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="8">
         <v>6</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E48" s="8">
         <v>25</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I48" s="18" t="str">
         <f t="shared" si="8"/>
@@ -5522,16 +5681,16 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="6">
         <v>7</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E50" s="6">
         <v>2</v>
@@ -5540,10 +5699,10 @@
         <v>3</v>
       </c>
       <c r="G50" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I50" s="18">
         <f t="shared" si="8"/>
@@ -5556,16 +5715,16 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="6">
         <v>7</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E51" s="6">
         <v>2</v>
@@ -5574,10 +5733,10 @@
         <v>3</v>
       </c>
       <c r="G51" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I51" s="18">
         <f t="shared" si="8"/>
@@ -5590,16 +5749,16 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52" s="6">
         <v>7</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E52" s="6">
         <v>2</v>
@@ -5608,10 +5767,10 @@
         <v>3</v>
       </c>
       <c r="G52" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I52" s="18">
         <f t="shared" si="8"/>
@@ -5624,16 +5783,16 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" s="6">
         <v>7</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E53" s="6">
         <v>2</v>
@@ -5642,10 +5801,10 @@
         <v>3</v>
       </c>
       <c r="G53" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I53" s="18">
         <f t="shared" si="8"/>
@@ -5658,16 +5817,16 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C54" s="6">
         <v>7</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E54" s="6">
         <v>2</v>
@@ -5676,10 +5835,10 @@
         <v>3</v>
       </c>
       <c r="G54" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I54" s="18">
         <f t="shared" si="8"/>
@@ -5692,16 +5851,16 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="6">
         <v>7</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E55" s="6">
         <v>1</v>
@@ -5710,10 +5869,10 @@
         <v>1</v>
       </c>
       <c r="G55" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I55" s="18">
         <f t="shared" si="8"/>
@@ -5726,25 +5885,25 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C56" s="6">
         <v>7</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E56" s="6">
         <v>3</v>
       </c>
       <c r="G56" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I56" s="18" t="str">
         <f t="shared" si="8"/>
@@ -5757,25 +5916,25 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" s="6">
         <v>7</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E57" s="6">
         <v>1</v>
       </c>
       <c r="G57" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I57" s="18" t="str">
         <f t="shared" si="8"/>
@@ -5788,16 +5947,16 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58" s="6">
         <v>7</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E58" s="6">
         <v>25</v>
@@ -5806,17 +5965,17 @@
         <v>25</v>
       </c>
       <c r="G58" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="18"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G59" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I59" s="18" t="str">
         <f t="shared" si="8"/>
@@ -5853,25 +6012,25 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C62" s="6">
         <v>8</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E62" s="6">
         <v>3</v>
       </c>
       <c r="G62" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I62" s="18" t="str">
         <f t="shared" si="8"/>
@@ -5884,25 +6043,25 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C63" s="6">
         <v>8</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
       </c>
       <c r="G63" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I63" s="18" t="str">
         <f t="shared" si="8"/>
@@ -5915,16 +6074,16 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C64" s="6">
         <v>8</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E64" s="6">
         <v>1</v>
@@ -5933,10 +6092,10 @@
         <v>3</v>
       </c>
       <c r="G64" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I64" s="18">
         <f t="shared" si="8"/>
@@ -5949,25 +6108,25 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C65" s="6">
         <v>8</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E65" s="6">
         <v>1</v>
       </c>
       <c r="G65" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I65" s="18" t="str">
         <f t="shared" si="8"/>
@@ -5980,16 +6139,16 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C66" s="6">
         <v>8</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E66" s="6">
         <v>1</v>
@@ -5998,26 +6157,26 @@
         <v>3</v>
       </c>
       <c r="G66" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I66" s="18"/>
       <c r="J66" s="18"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="6">
         <v>8</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E67" s="6">
         <v>1</v>
@@ -6026,10 +6185,10 @@
         <v>3</v>
       </c>
       <c r="G67" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I67" s="18">
         <f t="shared" si="8"/>
@@ -6042,16 +6201,16 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C68" s="6">
         <v>8</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E68" s="6">
         <v>1</v>
@@ -6060,10 +6219,10 @@
         <v>3</v>
       </c>
       <c r="G68" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I68" s="18">
         <f t="shared" si="8"/>
@@ -6076,25 +6235,25 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C69" s="6">
         <v>8</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E69" s="6">
         <v>1</v>
       </c>
       <c r="G69" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I69" s="18" t="str">
         <f t="shared" si="8"/>
@@ -6107,25 +6266,25 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C70" s="6">
         <v>8</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E70" s="6">
         <v>1</v>
       </c>
       <c r="G70" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I70" s="18" t="str">
         <f t="shared" si="8"/>
@@ -6158,16 +6317,16 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C72" s="6">
         <v>9</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E72" s="6">
         <v>1</v>
@@ -6176,10 +6335,10 @@
         <v>2</v>
       </c>
       <c r="G72" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I72" s="18">
         <f t="shared" si="8"/>
@@ -6192,16 +6351,16 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C73" s="6">
         <v>9</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E73" s="6">
         <v>1</v>
@@ -6210,10 +6369,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I73" s="18">
         <f t="shared" si="8"/>
@@ -6226,16 +6385,16 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C74" s="6">
         <v>9</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E74" s="6">
         <v>1</v>
@@ -6244,10 +6403,10 @@
         <v>1</v>
       </c>
       <c r="G74" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I74" s="18">
         <f t="shared" si="8"/>
@@ -6260,16 +6419,16 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C75" s="6">
         <v>9</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E75" s="6">
         <v>1</v>
@@ -6278,10 +6437,10 @@
         <v>1</v>
       </c>
       <c r="G75" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I75" s="18">
         <f t="shared" si="8"/>
@@ -6294,16 +6453,16 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C76" s="6">
         <v>9</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E76" s="6">
         <v>1</v>
@@ -6312,10 +6471,10 @@
         <v>2</v>
       </c>
       <c r="G76" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I76" s="18">
         <f t="shared" si="8"/>
@@ -6328,16 +6487,16 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C77" s="6">
         <v>9</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
@@ -6346,10 +6505,10 @@
         <v>1</v>
       </c>
       <c r="G77" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I77" s="18">
         <f t="shared" si="8"/>
@@ -6362,16 +6521,16 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C78" s="6">
         <v>9</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E78" s="6">
         <v>1</v>
@@ -6380,10 +6539,10 @@
         <v>2</v>
       </c>
       <c r="G78" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I78" s="18">
         <f t="shared" si="8"/>
@@ -6396,16 +6555,16 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C79" s="6">
         <v>9</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E79" s="6">
         <v>1</v>
@@ -6414,10 +6573,10 @@
         <v>0.5</v>
       </c>
       <c r="G79" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I79" s="18">
         <f t="shared" si="8"/>
@@ -6430,16 +6589,16 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C80" s="6">
         <v>9</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E80" s="6">
         <v>1</v>
@@ -6448,10 +6607,10 @@
         <v>2</v>
       </c>
       <c r="G80" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I80" s="18">
         <f t="shared" si="8"/>
@@ -6464,16 +6623,16 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C81" s="6">
         <v>9</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E81" s="6">
         <v>2</v>
@@ -6482,10 +6641,10 @@
         <v>2</v>
       </c>
       <c r="G81" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I81" s="18">
         <f t="shared" si="8"/>
@@ -6498,16 +6657,16 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C82" s="6">
         <v>9</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E82" s="6">
         <v>2</v>
@@ -6516,10 +6675,10 @@
         <v>2</v>
       </c>
       <c r="G82" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I82" s="18">
         <f t="shared" si="8"/>
@@ -6532,16 +6691,16 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C83" s="6">
         <v>9</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E83" s="6">
         <v>2</v>
@@ -6550,10 +6709,10 @@
         <v>2</v>
       </c>
       <c r="G83" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I83" s="18">
         <f t="shared" si="8"/>
@@ -6566,19 +6725,19 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C84" s="6">
         <v>9</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G84" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I84" s="18" t="str">
         <f t="shared" si="8"/>
@@ -6591,7 +6750,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G85" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I85" s="18" t="str">
         <f t="shared" si="8"/>
@@ -6634,16 +6793,16 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C88" s="6">
         <v>10</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E88" s="6">
         <v>0.25</v>
@@ -6652,10 +6811,10 @@
         <v>0.25</v>
       </c>
       <c r="G88" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H88" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I88" s="18">
         <f>IF(OR(E107="", F107=""), "", E107-F107)</f>
@@ -6668,138 +6827,138 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C89" s="6">
         <v>10</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G89" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H89" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I89" s="18" t="str">
-        <f t="shared" ref="I89:I163" si="10">IF(OR(E89="", F89=""), "", E89-F89)</f>
+        <f t="shared" ref="I89:I165" si="10">IF(OR(E89="", F89=""), "", E89-F89)</f>
         <v/>
       </c>
       <c r="J89" s="18" t="str">
-        <f t="shared" ref="J89:J163" si="11">IF(OR(I89="",F89=0),"",ABS(I89)/F89*100)</f>
+        <f t="shared" ref="J89:J165" si="11">IF(OR(I89="",F89=0),"",ABS(I89)/F89*100)</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C90" s="6">
         <v>10</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G90" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H90" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="18"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C91" s="6">
         <v>10</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G91" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="18"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C92" s="6">
         <v>10</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G92" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I92" s="18"/>
       <c r="J92" s="18"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C93" s="6">
         <v>10</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G93" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I93" s="18"/>
       <c r="J93" s="18"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C94" s="6">
         <v>10</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G94" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I94" s="18" t="str">
         <f t="shared" si="10"/>
@@ -6812,65 +6971,65 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C95" s="6">
         <v>10</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G95" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I95" s="18"/>
       <c r="J95" s="18"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C96" s="6">
         <v>10</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G96" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I96" s="18"/>
       <c r="J96" s="18"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G97" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I97" s="18"/>
       <c r="J97" s="18"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G98" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I98" s="18"/>
       <c r="J98" s="18"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G99" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I99" s="18">
         <f>IF(OR(E105="", F105=""), "", E105-F105)</f>
@@ -6883,14 +7042,14 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G100" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I100" s="18"/>
       <c r="J100" s="18"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G101" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I101" s="18" t="str">
         <f t="shared" si="10"/>
@@ -6903,7 +7062,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G102" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I102" s="18" t="str">
         <f t="shared" si="10"/>
@@ -6936,22 +7095,22 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B104" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C104" s="6">
         <v>11</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G104" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I104" s="18" t="str">
         <f t="shared" si="10"/>
@@ -6964,16 +7123,16 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C105" s="6">
         <v>11</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E105" s="6">
         <v>4</v>
@@ -6982,10 +7141,10 @@
         <v>8</v>
       </c>
       <c r="G105" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H105" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I105" s="18">
         <f t="shared" si="10"/>
@@ -6998,16 +7157,16 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C106" s="6">
         <v>11</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E106" s="6">
         <v>1</v>
@@ -7016,10 +7175,10 @@
         <v>2</v>
       </c>
       <c r="G106" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H106" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I106" s="18">
         <f t="shared" si="10"/>
@@ -7032,16 +7191,16 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C107" s="6">
         <v>11</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E107" s="6">
         <v>0.25</v>
@@ -7050,51 +7209,51 @@
         <v>0.5</v>
       </c>
       <c r="G107" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I107" s="18"/>
       <c r="J107" s="18"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C108" s="6">
         <v>11</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E108" s="6">
         <v>2</v>
       </c>
       <c r="G108" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I108" s="18"/>
       <c r="J108" s="18"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C109" s="6">
         <v>11</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E109" s="6">
         <v>1</v>
@@ -7103,48 +7262,48 @@
         <v>0.5</v>
       </c>
       <c r="G109" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I109" s="18"/>
       <c r="J109" s="18"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C110" s="6">
         <v>11</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G110" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I110" s="18"/>
       <c r="J110" s="18"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C111" s="6">
         <v>11</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E111" s="6">
         <v>0.25</v>
@@ -7153,42 +7312,42 @@
         <v>0.5</v>
       </c>
       <c r="G111" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I111" s="18"/>
       <c r="J111" s="18"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C112" s="6">
         <v>11</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E112" s="6">
         <v>5</v>
       </c>
       <c r="G112" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I112" s="18"/>
       <c r="J112" s="18"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G113" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I113" s="18" t="str">
         <f t="shared" si="10"/>
@@ -7201,7 +7360,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G114" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I114" s="18" t="str">
         <f t="shared" si="10"/>
@@ -7214,7 +7373,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G115" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I115" s="18" t="str">
         <f t="shared" si="10"/>
@@ -7246,65 +7405,191 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+      <c r="B117" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117" s="6">
+        <v>12</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E117" s="6">
+        <v>1</v>
+      </c>
+      <c r="F117" s="6">
+        <v>3</v>
+      </c>
       <c r="G117" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I117" s="18" t="str">
+        <v>68</v>
+      </c>
+      <c r="H117" t="s">
+        <v>154</v>
+      </c>
+      <c r="I117" s="18">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J117" s="18" t="str">
+        <v>-2</v>
+      </c>
+      <c r="J117" s="18">
         <f t="shared" si="11"/>
-        <v/>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>160</v>
+      </c>
+      <c r="B118" t="s">
+        <v>48</v>
+      </c>
+      <c r="C118" s="6">
+        <v>12</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E118" s="6">
+        <v>1</v>
+      </c>
+      <c r="F118" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G118" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="H118" t="s">
+        <v>161</v>
       </c>
       <c r="I118" s="18"/>
       <c r="J118" s="18"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>162</v>
+      </c>
+      <c r="B119" t="s">
+        <v>48</v>
+      </c>
+      <c r="C119" s="6">
+        <v>12</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E119" s="6">
+        <v>3</v>
+      </c>
+      <c r="F119" s="6">
+        <v>5</v>
+      </c>
       <c r="G119" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="I119" s="18" t="str">
+        <v>68</v>
+      </c>
+      <c r="H119" t="s">
+        <v>163</v>
+      </c>
+      <c r="I119" s="18">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J119" s="18" t="str">
+        <v>-2</v>
+      </c>
+      <c r="J119" s="18">
         <f t="shared" si="11"/>
-        <v/>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>164</v>
+      </c>
+      <c r="B120" t="s">
+        <v>48</v>
+      </c>
+      <c r="C120" s="6">
+        <v>12</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E120" s="6">
+        <v>3</v>
+      </c>
+      <c r="F120" s="6">
+        <v>4</v>
+      </c>
       <c r="G120" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="I120" s="18" t="str">
+        <v>68</v>
+      </c>
+      <c r="H120" t="s">
+        <v>165</v>
+      </c>
+      <c r="I120" s="18">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J120" s="18" t="str">
+        <v>-1</v>
+      </c>
+      <c r="J120" s="18">
         <f t="shared" si="11"/>
-        <v/>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>166</v>
+      </c>
+      <c r="B121" t="s">
+        <v>48</v>
+      </c>
+      <c r="C121" s="6">
+        <v>12</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E121" s="6">
+        <v>2</v>
+      </c>
+      <c r="F121" s="6">
+        <v>5</v>
+      </c>
       <c r="G121" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="I121" s="18" t="str">
+        <v>68</v>
+      </c>
+      <c r="H121" t="s">
+        <v>167</v>
+      </c>
+      <c r="I121" s="18">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J121" s="18" t="str">
+        <v>-3</v>
+      </c>
+      <c r="J121" s="18">
         <f t="shared" si="11"/>
-        <v/>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>170</v>
+      </c>
+      <c r="B122" t="s">
+        <v>48</v>
+      </c>
+      <c r="C122" s="6">
+        <v>12</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E122" s="6">
+        <v>6</v>
+      </c>
+      <c r="G122" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H122" t="s">
+        <v>169</v>
+      </c>
       <c r="I122" s="18" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7316,18 +7601,51 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>37</v>
-      </c>
-      <c r="I123" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J123" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B123" t="s">
+        <v>48</v>
+      </c>
+      <c r="C123" s="6">
+        <v>12</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E123" s="6">
+        <v>2</v>
+      </c>
+      <c r="G123" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H123" t="s">
+        <v>150</v>
+      </c>
+      <c r="I123" s="18"/>
+      <c r="J123" s="18"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>158</v>
+      </c>
+      <c r="B124" t="s">
+        <v>48</v>
+      </c>
+      <c r="C124" s="6">
+        <v>12</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E124" s="6">
+        <v>5</v>
+      </c>
+      <c r="G124" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H124" t="s">
+        <v>159</v>
+      </c>
       <c r="I124" s="18" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7338,106 +7656,107 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B125" s="3"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="3"/>
       <c r="I125" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I125:I134" si="12">IF(OR(E125="", F125=""), "", E125-F125)</f>
         <v/>
       </c>
       <c r="J125" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="J125:J134" si="13">IF(OR(I125="",F125=0),"",ABS(I125)/F125*100)</f>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G126" s="30" t="s">
+        <v>69</v>
+      </c>
       <c r="I126" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J126" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G127" s="30" t="s">
+        <v>69</v>
+      </c>
       <c r="I127" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J127" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G128" s="30" t="s">
+        <v>69</v>
+      </c>
       <c r="I128" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J128" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I129" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J129" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I130" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J130" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I131" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J131" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I132" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J132" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I133" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J133" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I134" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J134" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G129" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I129" s="18"/>
+      <c r="J129" s="18"/>
+    </row>
+    <row r="130" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G130" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I130" s="18"/>
+      <c r="J130" s="18"/>
+    </row>
+    <row r="131" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G131" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I131" s="18"/>
+      <c r="J131" s="18"/>
+    </row>
+    <row r="132" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G132" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I132" s="18"/>
+      <c r="J132" s="18"/>
+    </row>
+    <row r="133" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G133" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I133" s="18"/>
+      <c r="J133" s="18"/>
+    </row>
+    <row r="134" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G134" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I134" s="18"/>
+      <c r="J134" s="18"/>
+    </row>
+    <row r="135" spans="7:10" x14ac:dyDescent="0.2">
       <c r="I135" s="18" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7447,7 +7766,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="7:10" x14ac:dyDescent="0.2">
       <c r="I136" s="18" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7457,7 +7776,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="7:10" x14ac:dyDescent="0.2">
       <c r="I137" s="18" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7467,7 +7786,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="7:10" x14ac:dyDescent="0.2">
       <c r="I138" s="18" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7477,7 +7796,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="7:10" x14ac:dyDescent="0.2">
       <c r="I139" s="18" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7487,7 +7806,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="7:10" x14ac:dyDescent="0.2">
       <c r="I140" s="18" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7497,7 +7816,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="7:10" x14ac:dyDescent="0.2">
       <c r="I141" s="18" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7507,7 +7826,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="7:10" x14ac:dyDescent="0.2">
       <c r="I142" s="18" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7517,7 +7836,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="7:10" x14ac:dyDescent="0.2">
       <c r="I143" s="18" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7527,7 +7846,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="7:10" x14ac:dyDescent="0.2">
       <c r="I144" s="18" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7729,651 +8048,651 @@
     </row>
     <row r="164" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I164" s="18" t="str">
-        <f t="shared" ref="I164:I227" si="12">IF(OR(E164="", F164=""), "", E164-F164)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J164" s="18" t="str">
-        <f t="shared" ref="J164:J227" si="13">IF(OR(I164="",F164=0),"",ABS(I164)/F164*100)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I165" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J165" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I166" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="I166:I229" si="14">IF(OR(E166="", F166=""), "", E166-F166)</f>
         <v/>
       </c>
       <c r="J166" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="J166:J229" si="15">IF(OR(I166="",F166=0),"",ABS(I166)/F166*100)</f>
         <v/>
       </c>
     </row>
     <row r="167" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I167" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J167" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I168" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J168" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I169" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J169" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I170" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J170" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I171" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J171" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I172" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J172" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I173" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J173" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I174" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J174" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I175" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J175" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I176" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J176" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I177" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J177" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I178" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J178" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I179" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J179" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I180" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J180" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I181" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J181" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I182" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J182" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I183" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J183" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I184" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J184" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I185" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J185" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I186" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J186" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I187" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J187" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I188" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J188" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I189" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J189" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I190" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J190" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I191" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J191" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I192" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J192" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I193" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J193" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I194" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J194" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I195" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J195" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I196" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J196" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I197" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J197" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I198" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J198" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I199" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J199" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I200" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J200" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I201" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J201" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I202" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J202" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I203" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J203" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I204" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J204" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I205" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J205" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I206" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J206" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I207" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J207" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I208" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J208" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I209" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J209" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I210" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J210" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I211" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J211" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I212" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J212" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I213" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J213" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I214" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J214" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I215" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J215" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I216" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J216" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I217" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J217" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I218" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J218" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I219" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J219" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I220" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J220" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I221" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J221" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I222" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J222" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I223" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J223" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I224" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J224" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I225" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J225" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I226" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J226" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I227" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J227" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I228" s="18" t="str">
-        <f t="shared" ref="I228:I269" si="14">IF(OR(E228="", F228=""), "", E228-F228)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J228" s="18" t="str">
-        <f t="shared" ref="J228:J276" si="15">IF(OR(I228="",F228=0),"",ABS(I228)/F228*100)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -8389,493 +8708,568 @@
     </row>
     <row r="230" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I230" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="I230:I271" si="16">IF(OR(E230="", F230=""), "", E230-F230)</f>
         <v/>
       </c>
       <c r="J230" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="J230:J278" si="17">IF(OR(I230="",F230=0),"",ABS(I230)/F230*100)</f>
         <v/>
       </c>
     </row>
     <row r="231" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I231" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J231" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I232" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J232" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I233" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J233" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I234" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J234" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I235" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J235" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I236" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J236" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I237" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J237" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I238" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J238" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I239" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J239" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I240" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J240" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I241" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J241" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I242" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J242" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I243" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J243" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I244" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J244" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I245" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J245" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I246" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J246" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I247" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J247" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I248" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J248" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I249" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J249" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I250" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J250" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I251" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J251" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I252" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J252" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I253" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J253" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I254" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J254" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I255" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J255" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I256" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J256" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I257" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J257" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I258" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J258" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I259" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J259" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I260" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J260" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I261" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J261" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I262" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J262" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I263" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J263" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I264" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J264" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I265" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J265" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I266" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J266" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I267" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J267" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I268" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J268" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I269" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J269" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I270" s="18" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="J270" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I271" s="18" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="J271" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="9:10" x14ac:dyDescent="0.2">
       <c r="J272" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J273" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J274" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J275" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J276" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J277" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J278" s="18" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G26 G40 G49:G61 G64:G65 G67:G88 G97:G103 G112:G65537">
-    <cfRule type="cellIs" dxfId="20" priority="25" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G1:G26 G40 G49:G61 G64:G65 G67:G88 G97:G103 G112:G116 G118:G122 G135:G65539">
+    <cfRule type="cellIs" dxfId="35" priority="40" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="41" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="42" stopIfTrue="1" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:G39">
-    <cfRule type="cellIs" dxfId="17" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="37" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="38" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="39" stopIfTrue="1" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G48">
-    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="33" stopIfTrue="1" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62:G63">
-    <cfRule type="cellIs" dxfId="11" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="30" stopIfTrue="1" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"Delayed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89:G96">
+    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"Delayed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G104:G111">
+    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="equal">
+      <formula>"Delayed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" stopIfTrue="1" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"Delayed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G125">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"Delayed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G126:G134">
     <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -8886,7 +9280,7 @@
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G89:G96">
+  <conditionalFormatting sqref="G124">
     <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -8897,7 +9291,7 @@
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G104:G111">
+  <conditionalFormatting sqref="G123">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -8909,7 +9303,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B85 B87 B89:B98 B100:B65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B85 B87 B89:B98 B100:B65538">
       <formula1>"Requirements, Design, Development, Testing, Preparation, Coordination, Documentation, Interfaces, Delivery"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
@@ -8972,7 +9366,7 @@
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20" t="s">
@@ -9019,34 +9413,34 @@
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -9098,7 +9492,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -9323,15 +9717,15 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="23">
         <f>SUMIF(Activities!B:B,A21,Activities!F:F)</f>
@@ -9340,25 +9734,25 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="23">
         <f>SUMIF(Activities!B:B,A22,Activities!F:F)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="23">
         <f>SUMIF(Activities!B:B,A23,Activities!F:F)</f>
-        <v>46</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="23">
         <f>SUMIF(Activities!B:B,A24,Activities!F:F)</f>
@@ -9367,7 +9761,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F25" s="23">
         <f>SUMIF(Activities!B:B,A25,Activities!F:F)</f>
@@ -9376,7 +9770,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" s="23">
         <f>SUMIF(Activities!B:B,A26,Activities!F:F)</f>
@@ -9385,7 +9779,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="23">
         <f>SUMIF(Activities!B:B,A27,Activities!F:F)</f>
@@ -9394,7 +9788,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" s="23">
         <f>SUMIF(Activities!B:B,A28,Activities!F:F)</f>
@@ -9403,7 +9797,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" s="23">
         <f>SUMIF(Activities!B:B,A29,Activities!F:F)</f>
@@ -9417,67 +9811,67 @@
     </row>
     <row r="32" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>47</v>
-      </c>
       <c r="G33" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="23" t="s">
-        <v>45</v>
-      </c>
       <c r="I33" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="22" t="s">
@@ -9498,7 +9892,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="23">
         <f>SUMIF(Activities!B:B,A36,Activities!J:J)</f>
@@ -9515,41 +9909,41 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="23">
         <f>SUMIF(Activities!B:B,A37,Activities!J:J)</f>
-        <v>100</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="D37" s="23">
         <f>DCOUNT(Activities!A:J,"Estimation Error %",B32:B33)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" s="23">
         <f t="shared" ref="E37:E44" si="1">IF(D37=0,0,C37/D37)</f>
-        <v>50</v>
+        <v>55.55555555555555</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="23">
         <f>SUMIF(Activities!B:B,A38,Activities!J:J)</f>
-        <v>666.66666666666663</v>
+        <v>791.66666666666663</v>
       </c>
       <c r="D38" s="23">
         <f>DCOUNT(Activities!A:J,"Estimation Error %",C32:C33)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E38" s="23">
         <f t="shared" si="1"/>
-        <v>37.037037037037038</v>
+        <v>37.698412698412696</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="23">
         <f>SUMIF(Activities!B:B,A39,Activities!J:J)</f>
@@ -9566,7 +9960,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="23">
         <f>SUMIF(Activities!B:B,A40,Activities!J:J)</f>
@@ -9583,7 +9977,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="23">
         <f>SUMIF(Activities!B:B,A41,Activities!J:J)</f>
@@ -9600,7 +9994,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="23">
         <f>SUMIF(Activities!B:B,A42,Activities!J:J)</f>
@@ -9617,7 +10011,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="23">
         <f>SUMIF(Activities!B:B,A43,Activities!J:J)</f>
@@ -9634,7 +10028,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="23">
         <f>SUMIF(Activities!B:B,A44,Activities!J:J)</f>
@@ -9776,7 +10170,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F57" s="23">
         <f>SUM(F47:F56)</f>
@@ -9841,7 +10235,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -9871,32 +10265,32 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/ActivityTracker.xlsx
+++ b/ActivityTracker.xlsx
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="173">
   <si>
     <t>Week-wise-Effort</t>
   </si>
@@ -644,6 +644,12 @@
   </si>
   <si>
     <t>UI Design improvements</t>
+  </si>
+  <si>
+    <t>Store php scrips on non-local server</t>
+  </si>
+  <si>
+    <t>Scripts are now able to be stored on a remote server for access</t>
   </si>
 </sst>
 </file>
@@ -2608,7 +2614,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.5</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3211,7 +3217,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.5</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4296,10 +4302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J278"/>
+  <dimension ref="A1:J279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F123" sqref="F123"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -6845,11 +6851,11 @@
         <v>154</v>
       </c>
       <c r="I89" s="18" t="str">
-        <f t="shared" ref="I89:I165" si="10">IF(OR(E89="", F89=""), "", E89-F89)</f>
+        <f t="shared" ref="I89:I166" si="10">IF(OR(E89="", F89=""), "", E89-F89)</f>
         <v/>
       </c>
       <c r="J89" s="18" t="str">
-        <f t="shared" ref="J89:J165" si="11">IF(OR(I89="",F89=0),"",ABS(I89)/F89*100)</f>
+        <f t="shared" ref="J89:J166" si="11">IF(OR(I89="",F89=0),"",ABS(I89)/F89*100)</f>
         <v/>
       </c>
     </row>
@@ -7626,7 +7632,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B124" t="s">
         <v>48</v>
@@ -7638,53 +7644,68 @@
         <v>97</v>
       </c>
       <c r="E124" s="6">
+        <v>1</v>
+      </c>
+      <c r="F124" s="6">
+        <v>1</v>
+      </c>
+      <c r="G124" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H124" t="s">
+        <v>172</v>
+      </c>
+      <c r="I124" s="18"/>
+      <c r="J124" s="18"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>158</v>
+      </c>
+      <c r="B125" t="s">
+        <v>48</v>
+      </c>
+      <c r="C125" s="6">
+        <v>12</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E125" s="6">
         <v>5</v>
       </c>
-      <c r="G124" s="30" t="s">
+      <c r="G125" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H125" t="s">
         <v>159</v>
       </c>
-      <c r="I124" s="18" t="str">
+      <c r="I125" s="18" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J124" s="18" t="str">
+      <c r="J125" s="18" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="28"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="18" t="str">
-        <f t="shared" ref="I125:I134" si="12">IF(OR(E125="", F125=""), "", E125-F125)</f>
-        <v/>
-      </c>
-      <c r="J125" s="18" t="str">
-        <f t="shared" ref="J125:J134" si="13">IF(OR(I125="",F125=0),"",ABS(I125)/F125*100)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G126" s="30" t="s">
-        <v>69</v>
-      </c>
+      <c r="B126" s="3"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="28"/>
+      <c r="H126" s="3"/>
       <c r="I126" s="18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="I126:I135" si="12">IF(OR(E126="", F126=""), "", E126-F126)</f>
         <v/>
       </c>
       <c r="J126" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="J126:J135" si="13">IF(OR(I126="",F126=0),"",ABS(I126)/F126*100)</f>
         <v/>
       </c>
     </row>
@@ -7718,8 +7739,14 @@
       <c r="G129" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I129" s="18"/>
-      <c r="J129" s="18"/>
+      <c r="I129" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="J129" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
     </row>
     <row r="130" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G130" s="30" t="s">
@@ -7757,14 +7784,11 @@
       <c r="J134" s="18"/>
     </row>
     <row r="135" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I135" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J135" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="G135" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I135" s="18"/>
+      <c r="J135" s="18"/>
     </row>
     <row r="136" spans="7:10" x14ac:dyDescent="0.2">
       <c r="I136" s="18" t="str">
@@ -8068,21 +8092,21 @@
     </row>
     <row r="166" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I166" s="18" t="str">
-        <f t="shared" ref="I166:I229" si="14">IF(OR(E166="", F166=""), "", E166-F166)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J166" s="18" t="str">
-        <f t="shared" ref="J166:J229" si="15">IF(OR(I166="",F166=0),"",ABS(I166)/F166*100)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I167" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="I167:I230" si="14">IF(OR(E167="", F167=""), "", E167-F167)</f>
         <v/>
       </c>
       <c r="J167" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="J167:J230" si="15">IF(OR(I167="",F167=0),"",ABS(I167)/F167*100)</f>
         <v/>
       </c>
     </row>
@@ -8708,21 +8732,21 @@
     </row>
     <row r="230" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I230" s="18" t="str">
-        <f t="shared" ref="I230:I271" si="16">IF(OR(E230="", F230=""), "", E230-F230)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J230" s="18" t="str">
-        <f t="shared" ref="J230:J278" si="17">IF(OR(I230="",F230=0),"",ABS(I230)/F230*100)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I231" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="I231:I272" si="16">IF(OR(E231="", F231=""), "", E231-F231)</f>
         <v/>
       </c>
       <c r="J231" s="18" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="J231:J279" si="17">IF(OR(I231="",F231=0),"",ABS(I231)/F231*100)</f>
         <v/>
       </c>
     </row>
@@ -9127,6 +9151,10 @@
       </c>
     </row>
     <row r="272" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I272" s="18" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="J272" s="18" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -9168,9 +9196,15 @@
         <v/>
       </c>
     </row>
+    <row r="279" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J279" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G26 G40 G49:G61 G64:G65 G67:G88 G97:G103 G112:G116 G118:G122 G135:G65539">
+  <conditionalFormatting sqref="G1:G26 G40 G49:G61 G64:G65 G67:G88 G97:G103 G112:G116 G118:G122 G136:G65540">
     <cfRule type="cellIs" dxfId="35" priority="40" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -9258,7 +9292,7 @@
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G125">
+  <conditionalFormatting sqref="G126">
     <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -9269,7 +9303,7 @@
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G126:G134">
+  <conditionalFormatting sqref="G127:G135">
     <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -9280,7 +9314,7 @@
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G124">
+  <conditionalFormatting sqref="G125">
     <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -9291,7 +9325,7 @@
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G123">
+  <conditionalFormatting sqref="G123:G124">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -9303,7 +9337,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B85 B87 B89:B98 B100:B65538">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B85 B87 B89:B98 B100:B65539">
       <formula1>"Requirements, Design, Development, Testing, Preparation, Coordination, Documentation, Interfaces, Delivery"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
@@ -9747,7 +9781,7 @@
       </c>
       <c r="F23" s="23">
         <f>SUMIF(Activities!B:B,A23,Activities!F:F)</f>
-        <v>60.5</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">

--- a/ActivityTracker.xlsx
+++ b/ActivityTracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhastings\Documents\Personal\School\UNT\2016\FALL 2016\CSCE 4444\Project\Week 12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhastings\Documents\Personal\School\UNT\2016\FALL 2016\CSCE 4444\Project\Week 13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="203">
   <si>
     <t>Week-wise-Effort</t>
   </si>
@@ -340,9 +340,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Planned</t>
-  </si>
-  <si>
     <t>Ongoing</t>
   </si>
   <si>
@@ -650,6 +647,99 @@
   </si>
   <si>
     <t>Scripts are now able to be stored on a remote server for access</t>
+  </si>
+  <si>
+    <t>Add Workout</t>
+  </si>
+  <si>
+    <t>Settings Page</t>
+  </si>
+  <si>
+    <t>Diet Stats</t>
+  </si>
+  <si>
+    <t>Workout Stats</t>
+  </si>
+  <si>
+    <t>Friends List</t>
+  </si>
+  <si>
+    <t>User's List Search</t>
+  </si>
+  <si>
+    <t>Unfollow/Follow User Functionality</t>
+  </si>
+  <si>
+    <t>Home Page UI</t>
+  </si>
+  <si>
+    <t>Meal Submission Page</t>
+  </si>
+  <si>
+    <t>Create Workout</t>
+  </si>
+  <si>
+    <t>Profile UI Design/Implementation</t>
+  </si>
+  <si>
+    <t>Record Meal</t>
+  </si>
+  <si>
+    <t>Workout Calorie Calculations</t>
+  </si>
+  <si>
+    <t>Navigation Header</t>
+  </si>
+  <si>
+    <t>UI Design</t>
+  </si>
+  <si>
+    <t>Activites Center is complete. Shows workouts that the home user has created as well as viewing who follows the home user</t>
+  </si>
+  <si>
+    <t>Workouts now are able to be created by the user and correctly update all database tables accordingly. Delete functionality is also working the same way</t>
+  </si>
+  <si>
+    <t>Settings page allows the user to changs their username and password if permitted to do so</t>
+  </si>
+  <si>
+    <t>Diet Stats now show correct information and clear data out every 24 hours</t>
+  </si>
+  <si>
+    <t>Workout stats correctly pull workouts that belong to the user and show how often each workout is performed compared to the others</t>
+  </si>
+  <si>
+    <t>Friends List page shows all users who are signed up with Workout With Friends. Users can search and request to follow users they like.</t>
+  </si>
+  <si>
+    <t>Friends List is searchable and can be filtered based on quereys entered by the user in the search view box</t>
+  </si>
+  <si>
+    <t>UI for the user's profile is complete. Shows workouts, button to view followers, and shows user's information.</t>
+  </si>
+  <si>
+    <t>users can follow and unfollow users. Database records are updtated with each instance</t>
+  </si>
+  <si>
+    <t>Home screen has images for navigation with a help section on how to start</t>
+  </si>
+  <si>
+    <t>Meals are now able to be submitted and database tables will be updated accordingly</t>
+  </si>
+  <si>
+    <t>User can now create a workout and it will populate in their workout list</t>
+  </si>
+  <si>
+    <t>Workouts will calculate correct amount of calories burned based on weight, exercises, and time spent on each exercise</t>
+  </si>
+  <si>
+    <t>Users can now record a meal they have eaten and it will update stats for diet</t>
+  </si>
+  <si>
+    <t>Minor adjustments were made to make navigation options more clear to the user. Easier to understand wording.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI for app is complete. </t>
   </si>
 </sst>
 </file>
@@ -857,7 +947,33 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2215,7 +2331,7 @@
                   <c:v>55.55555555555555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.698412698412696</c:v>
+                  <c:v>49.408602150537632</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2614,7 +2730,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.5</c:v>
+                  <c:v>110.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3217,7 +3333,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.5</c:v>
+                  <c:v>110.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4304,8 +4420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" topLeftCell="C117" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H142" sqref="H142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -4317,7 +4433,7 @@
     <col min="5" max="5" width="11" style="6" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="122.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="130.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.28515625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4389,7 +4505,7 @@
     </row>
     <row r="4" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>45</v>
@@ -4398,7 +4514,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="8">
         <v>6</v>
@@ -4410,7 +4526,7 @@
         <v>68</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" si="0"/>
@@ -4423,7 +4539,7 @@
     </row>
     <row r="5" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>49</v>
@@ -4432,7 +4548,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="8">
         <v>0.5</v>
@@ -4444,7 +4560,7 @@
         <v>68</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I5" s="18">
         <f t="shared" si="0"/>
@@ -4457,7 +4573,7 @@
     </row>
     <row r="6" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>45</v>
@@ -4466,7 +4582,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="8">
         <v>1</v>
@@ -4478,7 +4594,7 @@
         <v>68</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I6" s="18">
         <f t="shared" si="0"/>
@@ -4491,7 +4607,7 @@
     </row>
     <row r="7" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>44</v>
@@ -4500,7 +4616,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="8">
         <v>2</v>
@@ -4512,7 +4628,7 @@
         <v>68</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I7" s="18">
         <f t="shared" si="0"/>
@@ -4525,7 +4641,7 @@
     </row>
     <row r="8" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>44</v>
@@ -4534,7 +4650,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="8">
         <v>10</v>
@@ -4546,7 +4662,7 @@
         <v>68</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8" s="18">
         <f t="shared" si="0"/>
@@ -4681,7 +4797,7 @@
     </row>
     <row r="16" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>44</v>
@@ -4690,7 +4806,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="8">
         <v>1.5</v>
@@ -4702,7 +4818,7 @@
         <v>68</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" s="18">
         <f t="shared" ref="I16:I25" si="2">IF(OR(E16="", F16=""), "", E16-F16)</f>
@@ -4715,7 +4831,7 @@
     </row>
     <row r="17" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>44</v>
@@ -4724,17 +4840,17 @@
         <v>4</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="8">
         <v>2</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I17" s="18" t="str">
         <f t="shared" si="2"/>
@@ -4747,7 +4863,7 @@
     </row>
     <row r="18" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>49</v>
@@ -4756,7 +4872,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="8">
         <v>0.75</v>
@@ -4768,7 +4884,7 @@
         <v>68</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I18" s="18">
         <f t="shared" si="2"/>
@@ -4781,7 +4897,7 @@
     </row>
     <row r="19" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>46</v>
@@ -4790,17 +4906,17 @@
         <v>4</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="8">
         <v>8</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I19" s="18" t="str">
         <f>IF(OR(E19="", F19=""), "", E19-F19)</f>
@@ -4813,7 +4929,7 @@
     </row>
     <row r="20" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>46</v>
@@ -4822,17 +4938,17 @@
         <v>4</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="8">
         <v>2</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I20" s="18" t="str">
         <f>IF(OR(E20="", F20=""), "", E20-F20)</f>
@@ -4845,7 +4961,7 @@
     </row>
     <row r="21" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>46</v>
@@ -4854,17 +4970,17 @@
         <v>4</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E21" s="8">
         <v>2</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I21" s="18" t="str">
         <f>IF(OR(E21="", F21=""), "", E21-F21)</f>
@@ -4877,7 +4993,7 @@
     </row>
     <row r="22" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>46</v>
@@ -4886,17 +5002,17 @@
         <v>4</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="8">
         <v>2</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I22" s="18" t="str">
         <f>IF(OR(E22="", F22=""), "", E22-F22)</f>
@@ -4909,7 +5025,7 @@
     </row>
     <row r="23" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>46</v>
@@ -4918,17 +5034,17 @@
         <v>4</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" s="8">
         <v>2</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I23" s="18" t="str">
         <f>IF(OR(E23="", F23=""), "", E23-F23)</f>
@@ -4941,7 +5057,7 @@
     </row>
     <row r="24" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>46</v>
@@ -4950,16 +5066,16 @@
         <v>4</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="8">
         <v>2</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I24" s="18" t="str">
         <f t="shared" si="2"/>
@@ -4972,7 +5088,7 @@
     </row>
     <row r="25" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>46</v>
@@ -4981,17 +5097,17 @@
         <v>4</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25" s="8">
         <v>2</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I25" s="18" t="str">
         <f t="shared" si="2"/>
@@ -5016,7 +5132,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>46</v>
@@ -5025,7 +5141,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" s="8">
         <v>8</v>
@@ -5037,7 +5153,7 @@
         <v>68</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I27" s="18">
         <f>IF(OR(E27="", F27=""), "", E27-F27)</f>
@@ -5050,7 +5166,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>46</v>
@@ -5059,17 +5175,17 @@
         <v>5</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" s="8">
         <v>2</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I28" s="18" t="str">
         <f>IF(OR(E28="", F28=""), "", E28-F28)</f>
@@ -5082,7 +5198,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>46</v>
@@ -5091,17 +5207,17 @@
         <v>5</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E29" s="8">
         <v>2</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I29" s="18" t="str">
         <f>IF(OR(E29="", F29=""), "", E29-F29)</f>
@@ -5114,7 +5230,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>46</v>
@@ -5123,17 +5239,17 @@
         <v>5</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" s="8">
         <v>2</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I30" s="18" t="str">
         <f>IF(OR(E30="", F30=""), "", E30-F30)</f>
@@ -5146,7 +5262,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>46</v>
@@ -5155,17 +5271,17 @@
         <v>5</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E31" s="8">
         <v>2</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I31" s="18" t="str">
         <f>IF(OR(E31="", F31=""), "", E31-F31)</f>
@@ -5178,7 +5294,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>46</v>
@@ -5187,16 +5303,16 @@
         <v>5</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E32" s="8">
         <v>2</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I32" s="18" t="str">
         <f t="shared" ref="I32:I39" si="4">IF(OR(E32="", F32=""), "", E32-F32)</f>
@@ -5209,7 +5325,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>46</v>
@@ -5218,17 +5334,17 @@
         <v>5</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E33" s="8">
         <v>2</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" s="18" t="str">
         <f t="shared" si="4"/>
@@ -5241,7 +5357,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>48</v>
@@ -5250,17 +5366,17 @@
         <v>5</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34" s="8">
         <v>2.5</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I34" s="18" t="str">
         <f t="shared" si="4"/>
@@ -5273,7 +5389,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>44</v>
@@ -5282,17 +5398,17 @@
         <v>5</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E35" s="8">
         <v>8</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I35" s="18" t="str">
         <f t="shared" si="4"/>
@@ -5397,7 +5513,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>46</v>
@@ -5406,7 +5522,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E41" s="8">
         <v>2</v>
@@ -5418,7 +5534,7 @@
         <v>68</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I41" s="18">
         <f t="shared" si="6"/>
@@ -5431,7 +5547,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>46</v>
@@ -5440,7 +5556,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E42" s="8">
         <v>2</v>
@@ -5452,7 +5568,7 @@
         <v>68</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I42" s="18">
         <f t="shared" si="6"/>
@@ -5465,7 +5581,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>46</v>
@@ -5474,7 +5590,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E43" s="8">
         <v>2</v>
@@ -5486,7 +5602,7 @@
         <v>68</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I43" s="18">
         <f t="shared" si="6"/>
@@ -5499,7 +5615,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>46</v>
@@ -5508,7 +5624,7 @@
         <v>6</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E44" s="8">
         <v>2</v>
@@ -5520,7 +5636,7 @@
         <v>68</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I44" s="18">
         <f t="shared" si="6"/>
@@ -5533,7 +5649,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>46</v>
@@ -5542,7 +5658,7 @@
         <v>6</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E45" s="8">
         <v>2</v>
@@ -5554,7 +5670,7 @@
         <v>68</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I45" s="18">
         <f t="shared" si="6"/>
@@ -5567,7 +5683,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>46</v>
@@ -5576,7 +5692,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E46" s="8">
         <v>2</v>
@@ -5588,7 +5704,7 @@
         <v>68</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I46" s="18">
         <f t="shared" ref="I46:I87" si="8">IF(OR(E46="", F46=""), "", E46-F46)</f>
@@ -5601,7 +5717,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>48</v>
@@ -5610,7 +5726,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E47" s="8">
         <v>2.5</v>
@@ -5622,7 +5738,7 @@
         <v>68</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I47" s="18">
         <f t="shared" si="8"/>
@@ -5635,7 +5751,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>44</v>
@@ -5644,17 +5760,17 @@
         <v>6</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E48" s="8">
         <v>25</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I48" s="18" t="str">
         <f t="shared" si="8"/>
@@ -5687,7 +5803,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>46</v>
@@ -5696,7 +5812,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E50" s="6">
         <v>2</v>
@@ -5708,7 +5824,7 @@
         <v>68</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I50" s="18">
         <f t="shared" si="8"/>
@@ -5721,7 +5837,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>46</v>
@@ -5730,7 +5846,7 @@
         <v>7</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E51" s="6">
         <v>2</v>
@@ -5742,7 +5858,7 @@
         <v>68</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I51" s="18">
         <f t="shared" si="8"/>
@@ -5755,7 +5871,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>46</v>
@@ -5764,7 +5880,7 @@
         <v>7</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E52" s="6">
         <v>2</v>
@@ -5776,7 +5892,7 @@
         <v>68</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I52" s="18">
         <f t="shared" si="8"/>
@@ -5789,7 +5905,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>46</v>
@@ -5798,7 +5914,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E53" s="6">
         <v>2</v>
@@ -5810,7 +5926,7 @@
         <v>68</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I53" s="18">
         <f t="shared" si="8"/>
@@ -5823,7 +5939,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>46</v>
@@ -5832,7 +5948,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E54" s="6">
         <v>2</v>
@@ -5844,7 +5960,7 @@
         <v>68</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I54" s="18">
         <f t="shared" si="8"/>
@@ -5857,7 +5973,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>46</v>
@@ -5866,7 +5982,7 @@
         <v>7</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E55" s="6">
         <v>1</v>
@@ -5878,7 +5994,7 @@
         <v>68</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I55" s="18">
         <f t="shared" si="8"/>
@@ -5891,7 +6007,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>48</v>
@@ -5900,16 +6016,16 @@
         <v>7</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E56" s="6">
         <v>3</v>
       </c>
       <c r="G56" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I56" s="18" t="str">
         <f t="shared" si="8"/>
@@ -5922,7 +6038,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>49</v>
@@ -5931,16 +6047,16 @@
         <v>7</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E57" s="6">
         <v>1</v>
       </c>
       <c r="G57" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I57" s="18" t="str">
         <f t="shared" si="8"/>
@@ -5953,7 +6069,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>44</v>
@@ -5962,7 +6078,7 @@
         <v>7</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E58" s="6">
         <v>25</v>
@@ -5974,7 +6090,7 @@
         <v>68</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="18"/>
@@ -6018,7 +6134,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>55</v>
@@ -6027,16 +6143,16 @@
         <v>8</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E62" s="6">
         <v>3</v>
       </c>
       <c r="G62" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I62" s="18" t="str">
         <f t="shared" si="8"/>
@@ -6049,7 +6165,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>49</v>
@@ -6058,16 +6174,16 @@
         <v>8</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
       </c>
       <c r="G63" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I63" s="18" t="str">
         <f t="shared" si="8"/>
@@ -6080,7 +6196,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
         <v>48</v>
@@ -6089,7 +6205,7 @@
         <v>8</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E64" s="6">
         <v>1</v>
@@ -6101,7 +6217,7 @@
         <v>68</v>
       </c>
       <c r="H64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I64" s="18">
         <f t="shared" si="8"/>
@@ -6114,7 +6230,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
         <v>55</v>
@@ -6123,16 +6239,16 @@
         <v>8</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E65" s="6">
         <v>1</v>
       </c>
       <c r="G65" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I65" s="18" t="str">
         <f t="shared" si="8"/>
@@ -6145,7 +6261,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B66" t="s">
         <v>48</v>
@@ -6154,7 +6270,7 @@
         <v>8</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E66" s="6">
         <v>1</v>
@@ -6166,14 +6282,14 @@
         <v>68</v>
       </c>
       <c r="H66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I66" s="18"/>
       <c r="J66" s="18"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B67" t="s">
         <v>48</v>
@@ -6182,7 +6298,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E67" s="6">
         <v>1</v>
@@ -6194,7 +6310,7 @@
         <v>68</v>
       </c>
       <c r="H67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I67" s="18">
         <f t="shared" si="8"/>
@@ -6207,7 +6323,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B68" t="s">
         <v>48</v>
@@ -6216,7 +6332,7 @@
         <v>8</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E68" s="6">
         <v>1</v>
@@ -6228,7 +6344,7 @@
         <v>68</v>
       </c>
       <c r="H68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I68" s="18">
         <f t="shared" si="8"/>
@@ -6241,7 +6357,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B69" t="s">
         <v>48</v>
@@ -6250,16 +6366,16 @@
         <v>8</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E69" s="6">
         <v>1</v>
       </c>
       <c r="G69" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I69" s="18" t="str">
         <f t="shared" si="8"/>
@@ -6272,7 +6388,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B70" t="s">
         <v>48</v>
@@ -6281,16 +6397,16 @@
         <v>8</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E70" s="6">
         <v>1</v>
       </c>
       <c r="G70" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I70" s="18" t="str">
         <f t="shared" si="8"/>
@@ -6323,7 +6439,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B72" t="s">
         <v>48</v>
@@ -6332,7 +6448,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E72" s="6">
         <v>1</v>
@@ -6344,7 +6460,7 @@
         <v>68</v>
       </c>
       <c r="H72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I72" s="18">
         <f t="shared" si="8"/>
@@ -6357,7 +6473,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B73" t="s">
         <v>48</v>
@@ -6366,7 +6482,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E73" s="6">
         <v>1</v>
@@ -6378,7 +6494,7 @@
         <v>68</v>
       </c>
       <c r="H73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I73" s="18">
         <f t="shared" si="8"/>
@@ -6391,7 +6507,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B74" t="s">
         <v>48</v>
@@ -6400,7 +6516,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E74" s="6">
         <v>1</v>
@@ -6412,7 +6528,7 @@
         <v>68</v>
       </c>
       <c r="H74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I74" s="18">
         <f t="shared" si="8"/>
@@ -6425,7 +6541,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B75" t="s">
         <v>48</v>
@@ -6434,7 +6550,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E75" s="6">
         <v>1</v>
@@ -6446,7 +6562,7 @@
         <v>68</v>
       </c>
       <c r="H75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I75" s="18">
         <f t="shared" si="8"/>
@@ -6459,7 +6575,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B76" t="s">
         <v>48</v>
@@ -6468,7 +6584,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E76" s="6">
         <v>1</v>
@@ -6480,7 +6596,7 @@
         <v>68</v>
       </c>
       <c r="H76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I76" s="18">
         <f t="shared" si="8"/>
@@ -6493,7 +6609,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B77" t="s">
         <v>48</v>
@@ -6502,7 +6618,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
@@ -6514,7 +6630,7 @@
         <v>68</v>
       </c>
       <c r="H77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I77" s="18">
         <f t="shared" si="8"/>
@@ -6527,7 +6643,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B78" t="s">
         <v>48</v>
@@ -6536,7 +6652,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E78" s="6">
         <v>1</v>
@@ -6548,7 +6664,7 @@
         <v>68</v>
       </c>
       <c r="H78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I78" s="18">
         <f t="shared" si="8"/>
@@ -6561,7 +6677,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B79" t="s">
         <v>48</v>
@@ -6570,7 +6686,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E79" s="6">
         <v>1</v>
@@ -6582,7 +6698,7 @@
         <v>68</v>
       </c>
       <c r="H79" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I79" s="18">
         <f t="shared" si="8"/>
@@ -6595,7 +6711,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B80" t="s">
         <v>48</v>
@@ -6604,7 +6720,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E80" s="6">
         <v>1</v>
@@ -6616,7 +6732,7 @@
         <v>68</v>
       </c>
       <c r="H80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I80" s="18">
         <f t="shared" si="8"/>
@@ -6629,7 +6745,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B81" t="s">
         <v>48</v>
@@ -6638,7 +6754,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E81" s="6">
         <v>2</v>
@@ -6650,7 +6766,7 @@
         <v>68</v>
       </c>
       <c r="H81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I81" s="18">
         <f t="shared" si="8"/>
@@ -6663,7 +6779,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B82" t="s">
         <v>48</v>
@@ -6672,7 +6788,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E82" s="6">
         <v>2</v>
@@ -6684,7 +6800,7 @@
         <v>68</v>
       </c>
       <c r="H82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I82" s="18">
         <f t="shared" si="8"/>
@@ -6697,7 +6813,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B83" t="s">
         <v>48</v>
@@ -6706,7 +6822,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E83" s="6">
         <v>2</v>
@@ -6718,7 +6834,7 @@
         <v>68</v>
       </c>
       <c r="H83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I83" s="18">
         <f t="shared" si="8"/>
@@ -6731,7 +6847,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B84" t="s">
         <v>49</v>
@@ -6740,10 +6856,10 @@
         <v>9</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G84" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I84" s="18" t="str">
         <f t="shared" si="8"/>
@@ -6799,7 +6915,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B88" t="s">
         <v>46</v>
@@ -6808,7 +6924,7 @@
         <v>10</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E88" s="6">
         <v>0.25</v>
@@ -6820,7 +6936,7 @@
         <v>68</v>
       </c>
       <c r="H88" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I88" s="18">
         <f>IF(OR(E107="", F107=""), "", E107-F107)</f>
@@ -6833,7 +6949,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B89" t="s">
         <v>49</v>
@@ -6842,13 +6958,13 @@
         <v>10</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G89" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H89" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I89" s="18" t="str">
         <f t="shared" ref="I89:I166" si="10">IF(OR(E89="", F89=""), "", E89-F89)</f>
@@ -6861,7 +6977,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B90" t="s">
         <v>48</v>
@@ -6870,20 +6986,20 @@
         <v>10</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G90" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="18"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B91" t="s">
         <v>48</v>
@@ -6892,20 +7008,20 @@
         <v>10</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G91" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="18"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B92" t="s">
         <v>48</v>
@@ -6914,20 +7030,20 @@
         <v>10</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G92" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I92" s="18"/>
       <c r="J92" s="18"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B93" t="s">
         <v>48</v>
@@ -6936,20 +7052,20 @@
         <v>10</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G93" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I93" s="18"/>
       <c r="J93" s="18"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B94" t="s">
         <v>48</v>
@@ -6958,13 +7074,13 @@
         <v>10</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G94" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I94" s="18" t="str">
         <f t="shared" si="10"/>
@@ -6977,7 +7093,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B95" t="s">
         <v>48</v>
@@ -6986,20 +7102,20 @@
         <v>10</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G95" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I95" s="18"/>
       <c r="J95" s="18"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B96" t="s">
         <v>48</v>
@@ -7008,13 +7124,13 @@
         <v>10</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G96" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I96" s="18"/>
       <c r="J96" s="18"/>
@@ -7101,7 +7217,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B104" t="s">
         <v>49</v>
@@ -7110,13 +7226,13 @@
         <v>11</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G104" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I104" s="18" t="str">
         <f t="shared" si="10"/>
@@ -7129,7 +7245,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B105" t="s">
         <v>48</v>
@@ -7138,7 +7254,7 @@
         <v>11</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E105" s="6">
         <v>4</v>
@@ -7150,7 +7266,7 @@
         <v>68</v>
       </c>
       <c r="H105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I105" s="18">
         <f t="shared" si="10"/>
@@ -7163,7 +7279,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B106" t="s">
         <v>48</v>
@@ -7172,7 +7288,7 @@
         <v>11</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E106" s="6">
         <v>1</v>
@@ -7184,7 +7300,7 @@
         <v>68</v>
       </c>
       <c r="H106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I106" s="18">
         <f t="shared" si="10"/>
@@ -7197,7 +7313,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B107" t="s">
         <v>48</v>
@@ -7206,7 +7322,7 @@
         <v>11</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E107" s="6">
         <v>0.25</v>
@@ -7215,17 +7331,17 @@
         <v>0.5</v>
       </c>
       <c r="G107" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I107" s="18"/>
       <c r="J107" s="18"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B108" t="s">
         <v>48</v>
@@ -7234,23 +7350,23 @@
         <v>11</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E108" s="6">
         <v>2</v>
       </c>
       <c r="G108" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I108" s="18"/>
       <c r="J108" s="18"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B109" t="s">
         <v>48</v>
@@ -7259,7 +7375,7 @@
         <v>11</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E109" s="6">
         <v>1</v>
@@ -7271,14 +7387,14 @@
         <v>68</v>
       </c>
       <c r="H109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I109" s="18"/>
       <c r="J109" s="18"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B110" t="s">
         <v>48</v>
@@ -7287,20 +7403,20 @@
         <v>11</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G110" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I110" s="18"/>
       <c r="J110" s="18"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B111" t="s">
         <v>48</v>
@@ -7309,7 +7425,7 @@
         <v>11</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E111" s="6">
         <v>0.25</v>
@@ -7318,17 +7434,17 @@
         <v>0.5</v>
       </c>
       <c r="G111" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I111" s="18"/>
       <c r="J111" s="18"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B112" t="s">
         <v>48</v>
@@ -7337,16 +7453,16 @@
         <v>11</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E112" s="6">
         <v>5</v>
       </c>
       <c r="G112" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I112" s="18"/>
       <c r="J112" s="18"/>
@@ -7412,7 +7528,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B117" t="s">
         <v>49</v>
@@ -7421,7 +7537,7 @@
         <v>12</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E117" s="6">
         <v>1</v>
@@ -7433,7 +7549,7 @@
         <v>68</v>
       </c>
       <c r="H117" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I117" s="18">
         <f t="shared" si="10"/>
@@ -7446,7 +7562,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B118" t="s">
         <v>48</v>
@@ -7455,7 +7571,7 @@
         <v>12</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E118" s="6">
         <v>1</v>
@@ -7467,14 +7583,14 @@
         <v>68</v>
       </c>
       <c r="H118" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I118" s="18"/>
       <c r="J118" s="18"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B119" t="s">
         <v>48</v>
@@ -7483,7 +7599,7 @@
         <v>12</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E119" s="6">
         <v>3</v>
@@ -7495,7 +7611,7 @@
         <v>68</v>
       </c>
       <c r="H119" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I119" s="18">
         <f t="shared" si="10"/>
@@ -7508,7 +7624,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B120" t="s">
         <v>48</v>
@@ -7517,7 +7633,7 @@
         <v>12</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E120" s="6">
         <v>3</v>
@@ -7529,7 +7645,7 @@
         <v>68</v>
       </c>
       <c r="H120" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I120" s="18">
         <f t="shared" si="10"/>
@@ -7542,7 +7658,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B121" t="s">
         <v>48</v>
@@ -7551,7 +7667,7 @@
         <v>12</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E121" s="6">
         <v>2</v>
@@ -7563,7 +7679,7 @@
         <v>68</v>
       </c>
       <c r="H121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I121" s="18">
         <f t="shared" si="10"/>
@@ -7576,7 +7692,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B122" t="s">
         <v>48</v>
@@ -7585,16 +7701,16 @@
         <v>12</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E122" s="6">
         <v>6</v>
       </c>
       <c r="G122" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I122" s="18" t="str">
         <f t="shared" si="10"/>
@@ -7607,7 +7723,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B123" t="s">
         <v>48</v>
@@ -7616,23 +7732,23 @@
         <v>12</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E123" s="6">
         <v>2</v>
       </c>
       <c r="G123" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I123" s="18"/>
       <c r="J123" s="18"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B124" t="s">
         <v>48</v>
@@ -7641,7 +7757,7 @@
         <v>12</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E124" s="6">
         <v>1</v>
@@ -7653,14 +7769,14 @@
         <v>68</v>
       </c>
       <c r="H124" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I124" s="18"/>
       <c r="J124" s="18"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B125" t="s">
         <v>48</v>
@@ -7669,16 +7785,16 @@
         <v>12</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E125" s="6">
         <v>5</v>
       </c>
       <c r="G125" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I125" s="18" t="str">
         <f t="shared" si="10"/>
@@ -7691,7 +7807,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="5"/>
@@ -7701,166 +7817,544 @@
       <c r="G126" s="28"/>
       <c r="H126" s="3"/>
       <c r="I126" s="18" t="str">
-        <f t="shared" ref="I126:I135" si="12">IF(OR(E126="", F126=""), "", E126-F126)</f>
+        <f t="shared" ref="I126:I129" si="12">IF(OR(E126="", F126=""), "", E126-F126)</f>
         <v/>
       </c>
       <c r="J126" s="18" t="str">
-        <f t="shared" ref="J126:J135" si="13">IF(OR(I126="",F126=0),"",ABS(I126)/F126*100)</f>
+        <f t="shared" ref="J126:J129" si="13">IF(OR(I126="",F126=0),"",ABS(I126)/F126*100)</f>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>161</v>
+      </c>
+      <c r="B127" t="s">
+        <v>48</v>
+      </c>
+      <c r="C127" s="6">
+        <v>13</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E127" s="6">
+        <v>1</v>
+      </c>
+      <c r="F127" s="6">
+        <v>1</v>
+      </c>
       <c r="G127" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="I127" s="18" t="str">
+        <v>68</v>
+      </c>
+      <c r="H127" t="s">
+        <v>187</v>
+      </c>
+      <c r="I127" s="18">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J127" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="J127" s="18">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>172</v>
+      </c>
+      <c r="B128" t="s">
+        <v>48</v>
+      </c>
+      <c r="C128" s="6">
+        <v>13</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E128" s="6">
+        <v>1</v>
+      </c>
+      <c r="F128" s="6">
+        <v>1</v>
+      </c>
       <c r="G128" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="I128" s="18" t="str">
+        <v>68</v>
+      </c>
+      <c r="H128" t="s">
+        <v>188</v>
+      </c>
+      <c r="I128" s="18">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J128" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="J128" s="18">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="7:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>173</v>
+      </c>
+      <c r="B129" t="s">
+        <v>48</v>
+      </c>
+      <c r="C129" s="6">
+        <v>13</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E129" s="6">
+        <v>1</v>
+      </c>
+      <c r="F129" s="6">
+        <v>0.25</v>
+      </c>
       <c r="G129" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="I129" s="18" t="str">
+        <v>68</v>
+      </c>
+      <c r="H129" t="s">
+        <v>189</v>
+      </c>
+      <c r="I129" s="18">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J129" s="18" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="J129" s="18">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="7:10" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>174</v>
+      </c>
+      <c r="B130" t="s">
+        <v>48</v>
+      </c>
+      <c r="C130" s="6">
+        <v>13</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E130" s="6">
+        <v>1</v>
+      </c>
+      <c r="F130" s="6">
+        <v>4</v>
+      </c>
       <c r="G130" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="H130" t="s">
+        <v>190</v>
       </c>
       <c r="I130" s="18"/>
       <c r="J130" s="18"/>
     </row>
-    <row r="131" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>175</v>
+      </c>
+      <c r="B131" t="s">
+        <v>48</v>
+      </c>
+      <c r="C131" s="6">
+        <v>13</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E131" s="6">
+        <v>2</v>
+      </c>
+      <c r="F131" s="6">
+        <v>3</v>
+      </c>
       <c r="G131" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="H131" t="s">
+        <v>191</v>
       </c>
       <c r="I131" s="18"/>
       <c r="J131" s="18"/>
     </row>
-    <row r="132" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>176</v>
+      </c>
+      <c r="B132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C132" s="6">
+        <v>13</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E132" s="6">
+        <v>2</v>
+      </c>
+      <c r="F132" s="6">
+        <v>2</v>
+      </c>
       <c r="G132" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="H132" t="s">
+        <v>192</v>
       </c>
       <c r="I132" s="18"/>
       <c r="J132" s="18"/>
     </row>
-    <row r="133" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>177</v>
+      </c>
+      <c r="B133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C133" s="6">
+        <v>13</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E133" s="6">
+        <v>1</v>
+      </c>
+      <c r="F133" s="6">
+        <v>5</v>
+      </c>
       <c r="G133" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="H133" t="s">
+        <v>193</v>
       </c>
       <c r="I133" s="18"/>
       <c r="J133" s="18"/>
     </row>
-    <row r="134" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>182</v>
+      </c>
+      <c r="B134" t="s">
+        <v>48</v>
+      </c>
+      <c r="C134" s="6">
+        <v>13</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E134" s="6">
+        <v>2</v>
+      </c>
+      <c r="F134" s="6">
+        <v>4</v>
+      </c>
       <c r="G134" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="H134" t="s">
+        <v>194</v>
       </c>
       <c r="I134" s="18"/>
       <c r="J134" s="18"/>
     </row>
-    <row r="135" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>178</v>
+      </c>
+      <c r="B135" t="s">
+        <v>48</v>
+      </c>
+      <c r="C135" s="6">
+        <v>13</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E135" s="6">
+        <v>3</v>
+      </c>
+      <c r="F135" s="6">
+        <v>4</v>
+      </c>
       <c r="G135" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="H135" t="s">
+        <v>195</v>
       </c>
       <c r="I135" s="18"/>
       <c r="J135" s="18"/>
     </row>
-    <row r="136" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I136" s="18" t="str">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>179</v>
+      </c>
+      <c r="B136" t="s">
+        <v>48</v>
+      </c>
+      <c r="C136" s="6">
+        <v>13</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E136" s="6">
+        <v>2</v>
+      </c>
+      <c r="F136" s="6">
+        <v>4</v>
+      </c>
+      <c r="G136" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H136" t="s">
+        <v>196</v>
+      </c>
+      <c r="I136" s="18">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J136" s="18" t="str">
+        <v>-2</v>
+      </c>
+      <c r="J136" s="18">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I137" s="18" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>180</v>
+      </c>
+      <c r="B137" t="s">
+        <v>48</v>
+      </c>
+      <c r="C137" s="6">
+        <v>13</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E137" s="6">
+        <v>1</v>
+      </c>
+      <c r="F137" s="6">
+        <v>4</v>
+      </c>
+      <c r="G137" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H137" t="s">
+        <v>197</v>
+      </c>
+      <c r="I137" s="18">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J137" s="18" t="str">
+        <v>-3</v>
+      </c>
+      <c r="J137" s="18">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I138" s="18" t="str">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>181</v>
+      </c>
+      <c r="B138" t="s">
+        <v>48</v>
+      </c>
+      <c r="C138" s="6">
+        <v>13</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E138" s="6">
+        <v>3</v>
+      </c>
+      <c r="F138" s="6">
+        <v>4</v>
+      </c>
+      <c r="G138" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H138" t="s">
+        <v>198</v>
+      </c>
+      <c r="I138" s="18">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J138" s="18" t="str">
+        <v>-1</v>
+      </c>
+      <c r="J138" s="18">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I139" s="18" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>183</v>
+      </c>
+      <c r="B139" t="s">
+        <v>48</v>
+      </c>
+      <c r="C139" s="6">
+        <v>13</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E139" s="6">
+        <v>2</v>
+      </c>
+      <c r="F139" s="6">
+        <v>4</v>
+      </c>
+      <c r="G139" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H139" t="s">
+        <v>200</v>
+      </c>
+      <c r="I139" s="18">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J139" s="18" t="str">
+        <v>-2</v>
+      </c>
+      <c r="J139" s="18">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I140" s="18" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>184</v>
+      </c>
+      <c r="B140" t="s">
+        <v>48</v>
+      </c>
+      <c r="C140" s="6">
+        <v>13</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E140" s="6">
+        <v>3</v>
+      </c>
+      <c r="F140" s="6">
+        <v>3</v>
+      </c>
+      <c r="G140" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H140" t="s">
+        <v>199</v>
+      </c>
+      <c r="I140" s="18">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J140" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="J140" s="18">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I141" s="18" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>185</v>
+      </c>
+      <c r="B141" t="s">
+        <v>48</v>
+      </c>
+      <c r="C141" s="6">
+        <v>13</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E141" s="6">
+        <v>3</v>
+      </c>
+      <c r="F141" s="6">
+        <v>1</v>
+      </c>
+      <c r="G141" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H141" t="s">
+        <v>201</v>
+      </c>
+      <c r="I141" s="18">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J141" s="18" t="str">
+        <v>2</v>
+      </c>
+      <c r="J141" s="18">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I142" s="18" t="str">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>186</v>
+      </c>
+      <c r="B142" t="s">
+        <v>48</v>
+      </c>
+      <c r="C142" s="6">
+        <v>13</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E142" s="6">
+        <v>3</v>
+      </c>
+      <c r="F142" s="6">
+        <v>5</v>
+      </c>
+      <c r="G142" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H142" t="s">
+        <v>202</v>
+      </c>
+      <c r="I142" s="18">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J142" s="18" t="str">
+        <v>-2</v>
+      </c>
+      <c r="J142" s="18">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="7:10" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>157</v>
+      </c>
+      <c r="B143" t="s">
+        <v>48</v>
+      </c>
+      <c r="C143" s="6">
+        <v>12</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E143" s="6">
+        <v>5</v>
+      </c>
+      <c r="G143" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H143" t="s">
+        <v>158</v>
+      </c>
       <c r="I143" s="18" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7870,7 +8364,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I144" s="18" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -9204,7 +9698,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G26 G40 G49:G61 G64:G65 G67:G88 G97:G103 G112:G116 G118:G122 G136:G65540">
+  <conditionalFormatting sqref="G1:G26 G40 G49:G61 G64:G65 G67:G88 G97:G103 G112:G116 G118:G122 G144:G65540">
+    <cfRule type="cellIs" dxfId="38" priority="43" stopIfTrue="1" operator="equal">
+      <formula>"Delayed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="44" stopIfTrue="1" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="45" stopIfTrue="1" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:G39">
     <cfRule type="cellIs" dxfId="35" priority="40" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -9215,18 +9720,18 @@
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G39">
-    <cfRule type="cellIs" dxfId="32" priority="37" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G41:G48">
+    <cfRule type="cellIs" dxfId="32" priority="34" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="35" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="36" stopIfTrue="1" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:G48">
+  <conditionalFormatting sqref="G62:G63">
     <cfRule type="cellIs" dxfId="29" priority="31" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -9237,18 +9742,18 @@
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G62:G63">
-    <cfRule type="cellIs" dxfId="26" priority="28" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="26" priority="25" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" stopIfTrue="1" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
+  <conditionalFormatting sqref="G89:G96">
     <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -9259,7 +9764,7 @@
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G89:G96">
+  <conditionalFormatting sqref="G104:G111">
     <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -9270,7 +9775,7 @@
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G104:G111">
+  <conditionalFormatting sqref="G117">
     <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -9281,7 +9786,7 @@
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G117">
+  <conditionalFormatting sqref="G126">
     <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -9292,7 +9797,7 @@
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G126">
+  <conditionalFormatting sqref="G127:G142">
     <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -9303,7 +9808,7 @@
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G127:G135">
+  <conditionalFormatting sqref="G125">
     <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -9314,7 +9819,7 @@
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G125">
+  <conditionalFormatting sqref="G123:G124">
     <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -9325,7 +9830,7 @@
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G123:G124">
+  <conditionalFormatting sqref="G143">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -9781,7 +10286,7 @@
       </c>
       <c r="F23" s="23">
         <f>SUMIF(Activities!B:B,A23,Activities!F:F)</f>
-        <v>61.5</v>
+        <v>110.75</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -9964,15 +10469,15 @@
       </c>
       <c r="C38" s="23">
         <f>SUMIF(Activities!B:B,A38,Activities!J:J)</f>
-        <v>791.66666666666663</v>
+        <v>1531.6666666666665</v>
       </c>
       <c r="D38" s="23">
         <f>DCOUNT(Activities!A:J,"Estimation Error %",C32:C33)</f>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E38" s="23">
         <f t="shared" si="1"/>
-        <v>37.698412698412696</v>
+        <v>49.408602150537632</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
